--- a/data/hotels_by_city/Houston/Houston_shard_535.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_535.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223175-Reviews-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Red-Roof-Inn-Houston-Brookhollow.h41213.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1408 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r587847620-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223175</t>
+  </si>
+  <si>
+    <t>587847620</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Room was clean and smelled good unlike some hotels in the area.  The house keeping staff was super nice and showed me what I was looking for.  Angie with her beautiful smile at the front desk was amazing and can't wait to come back to Houston and stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Hotel Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Room was clean and smelled good unlike some hotels in the area.  The house keeping staff was super nice and showed me what I was looking for.  Angie with her beautiful smile at the front desk was amazing and can't wait to come back to Houston and stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r583595849-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583595849</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Pet friendly and affordable</t>
+  </si>
+  <si>
+    <t>I been staying at this hotel over a month and have felt very comfortable. The staff in very friendly and they have have a decent lawn and doggy bags for pets! Angie and Tim are great and always make my reservations quick and easy! Out of all the other extended stay hotels in the area this red roof is the best and nicer and affordable with no extra fees for your pet which is really great! I recommend this hotel for anyone :)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Hotel Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>I been staying at this hotel over a month and have felt very comfortable. The staff in very friendly and they have have a decent lawn and doggy bags for pets! Angie and Tim are great and always make my reservations quick and easy! Out of all the other extended stay hotels in the area this red roof is the best and nicer and affordable with no extra fees for your pet which is really great! I recommend this hotel for anyone :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r583049101-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583049101</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Red Roof</t>
+  </si>
+  <si>
+    <t>The staff is very friendly and helpful. The rooms are clean and very spacious. The housekeepers are friendly and nice that make sure your rooms are cleaned. The place is quiet and pool is clean. My stay was great!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The staff is very friendly and helpful. The rooms are clean and very spacious. The housekeepers are friendly and nice that make sure your rooms are cleaned. The place is quiet and pool is clean. My stay was great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r582442387-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582442387</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Our stay at Red Roof Inn</t>
+  </si>
+  <si>
+    <t>When traveling and having to stay in a hotel it makes things a little harder but when you have people that work the front desk make it a little easier for you its always a plus. Thats why I love staying at my favorite hotel with my favorite front desk clerk Angie Rodriguez. She always has a smile on her face and makes my stay alot simpler. So thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>When traveling and having to stay in a hotel it makes things a little harder but when you have people that work the front desk make it a little easier for you its always a plus. Thats why I love staying at my favorite hotel with my favorite front desk clerk Angie Rodriguez. She always has a smile on her face and makes my stay alot simpler. So thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r582428850-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582428850</t>
+  </si>
+  <si>
+    <t>Awesome rooms and very friendly staff</t>
+  </si>
+  <si>
+    <t>I thought it was gonna be a dirty little place but Angie Rodriguez at the front desk made my stay very comfortable. The room is spacious and clean and the before was extremely comfortable. They even have anot elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Hotel Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2018</t>
+  </si>
+  <si>
+    <t>I thought it was gonna be a dirty little place but Angie Rodriguez at the front desk made my stay very comfortable. The room is spacious and clean and the before was extremely comfortable. They even have anot elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r582418103-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582418103</t>
+  </si>
+  <si>
+    <t>Red Roof Inn a/k/a Red Roof Haven</t>
+  </si>
+  <si>
+    <t>The Red Roof Inn has been our home, our haven, for the past 4 months due to unforeseen occurrences with our recent relocation to Houston. The staff here has made this adjustment so much easier to deal with. Manager, Jay, and staff, Angie Rodriguez, Alma, Tim, and Marta from housekeeping, are always friendly and very accommodating. Red Roof Inn is a sure winner, from the free breakfast and coffee service to the emaculate way the staff keeps the rooms, pool, and hotel grounds. For a family friendly and pet friendly stay, we strongly recommend Red Roof Inn in Brookhollow.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Red Roof Inn has been our home, our haven, for the past 4 months due to unforeseen occurrences with our recent relocation to Houston. The staff here has made this adjustment so much easier to deal with. Manager, Jay, and staff, Angie Rodriguez, Alma, Tim, and Marta from housekeeping, are always friendly and very accommodating. Red Roof Inn is a sure winner, from the free breakfast and coffee service to the emaculate way the staff keeps the rooms, pool, and hotel grounds. For a family friendly and pet friendly stay, we strongly recommend Red Roof Inn in Brookhollow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r579513410-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579513410</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Best Hotel Ever</t>
+  </si>
+  <si>
+    <t>I'm staying at the Brookhollow location in Houston Tx and I have stayed at this location several times since 2016 and I've never been happier having to stay in a hotel. They accomodate you in every way they can. Very nice staff and management. And the fact that your pet can stay with you for free is even better. Cause my dog is just like one of my kids. And Angie Rodriguez that works the front desk is always so friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Hotel Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
+  </si>
+  <si>
+    <t>I'm staying at the Brookhollow location in Houston Tx and I have stayed at this location several times since 2016 and I've never been happier having to stay in a hotel. They accomodate you in every way they can. Very nice staff and management. And the fact that your pet can stay with you for free is even better. Cause my dog is just like one of my kids. And Angie Rodriguez that works the front desk is always so friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r536966381-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536966381</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Basic budget property</t>
+  </si>
+  <si>
+    <t>I booked a king room, delux non-smoking, for 2 nights. The room was big and it looks somewhat like the pictures of the ads. Yet, keep in mind that it is outdated and all linens and decor are more than used- to be replaced I would say. The bed was old and bouncy, less than budget-quality. The room had a full-size fridge and a microwave, a plus plus is you need them. Coffee in room and basic toiletries are provided. I did not have the chance to have the continental breakfast, it ends at 8:30AM, a very strange practice. It seems a bit unfair and deceptive. Even hotels serving airport areas have better hours for breakfast. In any case, don't be confused, the breakfast area is a nook with a couple of juice and coffee machines and no tables or dining room. So, if you count on having breakfast here, bring your own if you sleep late on Saturday. We went at 9 -not late- and only basic coffee was available using the machine. I would not stay at this place again. Staff were very nice but the price is standard and other options are available on this same block, much nicer and newer- for about the same rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2017</t>
+  </si>
+  <si>
+    <t>I booked a king room, delux non-smoking, for 2 nights. The room was big and it looks somewhat like the pictures of the ads. Yet, keep in mind that it is outdated and all linens and decor are more than used- to be replaced I would say. The bed was old and bouncy, less than budget-quality. The room had a full-size fridge and a microwave, a plus plus is you need them. Coffee in room and basic toiletries are provided. I did not have the chance to have the continental breakfast, it ends at 8:30AM, a very strange practice. It seems a bit unfair and deceptive. Even hotels serving airport areas have better hours for breakfast. In any case, don't be confused, the breakfast area is a nook with a couple of juice and coffee machines and no tables or dining room. So, if you count on having breakfast here, bring your own if you sleep late on Saturday. We went at 9 -not late- and only basic coffee was available using the machine. I would not stay at this place again. Staff were very nice but the price is standard and other options are available on this same block, much nicer and newer- for about the same rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r534476921-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534476921</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Amazing stay!</t>
+  </si>
+  <si>
+    <t>So I came in April 11th from Atlanta for my birthday and I was very impressed with this hotel. The room was clean and comfortable I got the deluxe king size bed which was so spacious and the wifi was free which was fantastic!The front desk person was also helpful I believe her name was Naureen. She had a very pleasant and welcoming attitude and was able to assist me with everything I needed . The continental breakfast in the morning was very decent. Overall I believe was satisfied with my stay and will probably stay there next time I am in town. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>So I came in April 11th from Atlanta for my birthday and I was very impressed with this hotel. The room was clean and comfortable I got the deluxe king size bed which was so spacious and the wifi was free which was fantastic!The front desk person was also helpful I believe her name was Naureen. She had a very pleasant and welcoming attitude and was able to assist me with everything I needed . The continental breakfast in the morning was very decent. Overall I believe was satisfied with my stay and will probably stay there next time I am in town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r490080441-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490080441</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not bad at all!! </t>
+  </si>
+  <si>
+    <t>Great prices staff friendly. Clean rooms. Pool was nice and a nice area out back for dogs to walk  Close to shopping and restaurants I could walk to as I didn't have a car the entire visit I was there so that was convenient. They do have smoking rooms. And they have a small breakfast buffet and a computer for guests to use and a public restroom for when you are at the pool. Vending machines are a bit high priced and out of order half the time but they were fixed timely. Coffee 24/7 with all kinds of flavored Creamer! And they never minded my visitors bcuz I live in my hotel rooms. So that is important. I will definitely be going back there for a stay as soon as construction is over with. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Great prices staff friendly. Clean rooms. Pool was nice and a nice area out back for dogs to walk  Close to shopping and restaurants I could walk to as I didn't have a car the entire visit I was there so that was convenient. They do have smoking rooms. And they have a small breakfast buffet and a computer for guests to use and a public restroom for when you are at the pool. Vending machines are a bit high priced and out of order half the time but they were fixed timely. Coffee 24/7 with all kinds of flavored Creamer! And they never minded my visitors bcuz I live in my hotel rooms. So that is important. I will definitely be going back there for a stay as soon as construction is over with. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r469420088-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469420088</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Road construction... But very nice.</t>
+  </si>
+  <si>
+    <t>The road construction was a total nightmare but otherwise it was great. Plenty of room for our dig to do her dog thing. Staff was nice. Several good places to eat close by &amp; some even in walking distance. Breakfast was small but good. Coffee &amp; orange juice were really fresh. Will definitely look into staying again if we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>The road construction was a total nightmare but otherwise it was great. Plenty of room for our dig to do her dog thing. Staff was nice. Several good places to eat close by &amp; some even in walking distance. Breakfast was small but good. Coffee &amp; orange juice were really fresh. Will definitely look into staying again if we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r468054370-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468054370</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>The good, the bad, and the ugly</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights this week. Here it is: 
+The ugly: see the photos. The comforter was burned by cigarettes in multiple places. This was a non smoking room. The blanket had a stain on it. The floor in front of the fridge/entertainment center was scratched badly like an animal was digging for something. I did request a new blanket/comforter. The front desk man seemed uninterested &amp; only asked if I was in a smoking room (I was not). I never got them. Luckily I didn't need them. 
+The bad: the towels regularly had stuff on them. Mostly very small hairs wound into the fabric of the towel. The stairwell regularly smelled like pot &amp; the door that is supposed to be only accessible with a guest room key was left open for hours while they staff was cleaning. Nobody was watching it. There was a rent a cop sitting at the entrance of the parking lot. Not sure what he was doing. Only on my last night he stopped me &amp; asked for my room number. 
+The good: the room was clean. No bugs. Fairly quiet. I felt safe. My car was not damaged or in any danger in the parking lot. Staff cleaned daily. (Although it would have been nice if they would have left the entry light on in my room that I left on so I didn't have to come back to a dark room)....Stayed here for 5 nights this week. Here it is: The ugly: see the photos. The comforter was burned by cigarettes in multiple places. This was a non smoking room. The blanket had a stain on it. The floor in front of the fridge/entertainment center was scratched badly like an animal was digging for something. I did request a new blanket/comforter. The front desk man seemed uninterested &amp; only asked if I was in a smoking room (I was not). I never got them. Luckily I didn't need them. The bad: the towels regularly had stuff on them. Mostly very small hairs wound into the fabric of the towel. The stairwell regularly smelled like pot &amp; the door that is supposed to be only accessible with a guest room key was left open for hours while they staff was cleaning. Nobody was watching it. There was a rent a cop sitting at the entrance of the parking lot. Not sure what he was doing. Only on my last night he stopped me &amp; asked for my room number. The good: the room was clean. No bugs. Fairly quiet. I felt safe. My car was not damaged or in any danger in the parking lot. Staff cleaned daily. (Although it would have been nice if they would have left the entry light on in my room that I left on so I didn't have to come back to a dark room). All in all: you get what you pay for. I was here for 5 nights &amp; didn't want to spend a fortune. The price was great. And that is hard to find in Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights this week. Here it is: 
+The ugly: see the photos. The comforter was burned by cigarettes in multiple places. This was a non smoking room. The blanket had a stain on it. The floor in front of the fridge/entertainment center was scratched badly like an animal was digging for something. I did request a new blanket/comforter. The front desk man seemed uninterested &amp; only asked if I was in a smoking room (I was not). I never got them. Luckily I didn't need them. 
+The bad: the towels regularly had stuff on them. Mostly very small hairs wound into the fabric of the towel. The stairwell regularly smelled like pot &amp; the door that is supposed to be only accessible with a guest room key was left open for hours while they staff was cleaning. Nobody was watching it. There was a rent a cop sitting at the entrance of the parking lot. Not sure what he was doing. Only on my last night he stopped me &amp; asked for my room number. 
+The good: the room was clean. No bugs. Fairly quiet. I felt safe. My car was not damaged or in any danger in the parking lot. Staff cleaned daily. (Although it would have been nice if they would have left the entry light on in my room that I left on so I didn't have to come back to a dark room)....Stayed here for 5 nights this week. Here it is: The ugly: see the photos. The comforter was burned by cigarettes in multiple places. This was a non smoking room. The blanket had a stain on it. The floor in front of the fridge/entertainment center was scratched badly like an animal was digging for something. I did request a new blanket/comforter. The front desk man seemed uninterested &amp; only asked if I was in a smoking room (I was not). I never got them. Luckily I didn't need them. The bad: the towels regularly had stuff on them. Mostly very small hairs wound into the fabric of the towel. The stairwell regularly smelled like pot &amp; the door that is supposed to be only accessible with a guest room key was left open for hours while they staff was cleaning. Nobody was watching it. There was a rent a cop sitting at the entrance of the parking lot. Not sure what he was doing. Only on my last night he stopped me &amp; asked for my room number. The good: the room was clean. No bugs. Fairly quiet. I felt safe. My car was not damaged or in any danger in the parking lot. Staff cleaned daily. (Although it would have been nice if they would have left the entry light on in my room that I left on so I didn't have to come back to a dark room). All in all: you get what you pay for. I was here for 5 nights &amp; didn't want to spend a fortune. The price was great. And that is hard to find in Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r458071335-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458071335</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and was very well maintained inside of the rooms! The location was not the greatest as there was a ton of construction close by and hard to get on and off the freeway. The internet didn't work either and didn't give you an option to enter in the password to use. Overall a nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and was very well maintained inside of the rooms! The location was not the greatest as there was a ton of construction close by and hard to get on and off the freeway. The internet didn't work either and didn't give you an option to enter in the password to use. Overall a nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r457986328-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457986328</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>New Red Roof Client</t>
+  </si>
+  <si>
+    <t>A friend recommended the Red Roof Inn and after staying there for 2 nights, I ended up extending my stay. It's true what they say, it does supply you with the comforts of home. This particular Red Roof Inn was at a quiet location, lots of places to eat nearby and within walking distance of certain things (shopping, grocery store, laundry etc.) as well; however most things are on the opposite side of the highway. Since road construction was going on, I quick uber worked for me. The Inn was clean, the front desk staff was friendly and helpful; however housekeeping was very loud in the hallways. I chose a superior room because it included everything I wanted; I had a king size bed, refrigerator, microwave and a sofa. There was also an iron and ironing board, a coffee maker and multiple outlets which was great. The only negatives are: there was a pool but it was not in service at the time and the breakfast area needs to be upgraded asap. Other than that I will definitely be visiting another Red Roof Inn again soon. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>A friend recommended the Red Roof Inn and after staying there for 2 nights, I ended up extending my stay. It's true what they say, it does supply you with the comforts of home. This particular Red Roof Inn was at a quiet location, lots of places to eat nearby and within walking distance of certain things (shopping, grocery store, laundry etc.) as well; however most things are on the opposite side of the highway. Since road construction was going on, I quick uber worked for me. The Inn was clean, the front desk staff was friendly and helpful; however housekeeping was very loud in the hallways. I chose a superior room because it included everything I wanted; I had a king size bed, refrigerator, microwave and a sofa. There was also an iron and ironing board, a coffee maker and multiple outlets which was great. The only negatives are: there was a pool but it was not in service at the time and the breakfast area needs to be upgraded asap. Other than that I will definitely be visiting another Red Roof Inn again soon. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r444671195-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444671195</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Last moment.</t>
+  </si>
+  <si>
+    <t>Very impressive. Outstanding service by Angie and Kevin. Angie, help me with a personal issue, she took care of me. Kevin was courteous as well at checkout. New remodeled room, with great TVs. Stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Very impressive. Outstanding service by Angie and Kevin. Angie, help me with a personal issue, she took care of me. Kevin was courteous as well at checkout. New remodeled room, with great TVs. Stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r440948207-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440948207</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>"Wonderful and caring staff, great hospitality."</t>
+  </si>
+  <si>
+    <t>I love this hotel, it is very clean and comfortable. The staff showed me a pleasant welcome and make sure I was satisfy, they are very helpful. My room felt like a home away from home. The Housekeeping staff cleaned my room everyday for the four nights I lodged there, and they work very hard. I am very please of how Red Roof Inn  had so many amenities in the room, everything I needed was there for me. Props Up to Red Roof Inn, I will sure use them again next time I travel out of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded December 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2016</t>
+  </si>
+  <si>
+    <t>I love this hotel, it is very clean and comfortable. The staff showed me a pleasant welcome and make sure I was satisfy, they are very helpful. My room felt like a home away from home. The Housekeeping staff cleaned my room everyday for the four nights I lodged there, and they work very hard. I am very please of how Red Roof Inn  had so many amenities in the room, everything I needed was there for me. Props Up to Red Roof Inn, I will sure use them again next time I travel out of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r438420635-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438420635</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Decent room....</t>
+  </si>
+  <si>
+    <t>The first night I stayed there on the second floor I really enjoyed my room it was big clean &amp; spacious. The floors were wood. It had a mini relfrigerator with freezer in it. It had a microwave. The bed was comfy and pretty big. The shower was nice and clean. The front desk clerk was very nice and helpful. They had pastries &amp; cereal. Free coffee 24/7.  The second night I stayed I requested an outside room. I wasn't as satisfied with it due to it being very small and smelled like they did not spray air freshener when they cleaned the the room. I didn't see no roaches so that's was a plus. They are pet friendly and that's a no because it could lead to fleas in the bed &amp; room. The TV in the 2nd room was rigged to only go up to 50 on the volume which wasn't loud at all so that was an inconvenience not to be able to hear my TV from my bed... I rated it average because it's like the average room....MoreShow less</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>The first night I stayed there on the second floor I really enjoyed my room it was big clean &amp; spacious. The floors were wood. It had a mini relfrigerator with freezer in it. It had a microwave. The bed was comfy and pretty big. The shower was nice and clean. The front desk clerk was very nice and helpful. They had pastries &amp; cereal. Free coffee 24/7.  The second night I stayed I requested an outside room. I wasn't as satisfied with it due to it being very small and smelled like they did not spray air freshener when they cleaned the the room. I didn't see no roaches so that's was a plus. They are pet friendly and that's a no because it could lead to fleas in the bed &amp; room. The TV in the 2nd room was rigged to only go up to 50 on the volume which wasn't loud at all so that was an inconvenience not to be able to hear my TV from my bed... I rated it average because it's like the average room....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r436026783-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436026783</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>wonderful welcome</t>
+  </si>
+  <si>
+    <t>I read the reviews and I must say walking in and being greeted with a warm welcome smile was simply wonderful Mary made me feel at home.  I see the renovations being done but I was sold from the start wish my stay would have been longer, rooms were up to date I slept like a baby the security at night made me feel secure, the young man at night was so helpful with directions so young bless his heart and his new child on the way this will be my hotel of preference to me and my fellow coworkers.MoreShow less</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded November 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2016</t>
+  </si>
+  <si>
+    <t>I read the reviews and I must say walking in and being greeted with a warm welcome smile was simply wonderful Mary made me feel at home.  I see the renovations being done but I was sold from the start wish my stay would have been longer, rooms were up to date I slept like a baby the security at night made me feel secure, the young man at night was so helpful with directions so young bless his heart and his new child on the way this will be my hotel of preference to me and my fellow coworkers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r407044764-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>407044764</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Nice updates to property underway. Property is always safe and secure. Cost per night favors that of low. Lots of great eatery establishments around to choose from. Plenty to do as far as what to do while here. Had a wonderful stay at this hotel as usual. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Nice updates to property underway. Property is always safe and secure. Cost per night favors that of low. Lots of great eatery establishments around to choose from. Plenty to do as far as what to do while here. Had a wonderful stay at this hotel as usual. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r405858530-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405858530</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Unpleasant stay</t>
+  </si>
+  <si>
+    <t>1. There were roaches in the hallways and gnats in our room2. The hallways were very dark because the wall light fixtures only had one bulb in each fixture3. The free breakfast ends at 8:30 am which is too early in my opinion4. The towels were small and very scratchy5. The front desk staff was friendly but they double charged my roomMoreShow less</t>
+  </si>
+  <si>
+    <t>1. There were roaches in the hallways and gnats in our room2. The hallways were very dark because the wall light fixtures only had one bulb in each fixture3. The free breakfast ends at 8:30 am which is too early in my opinion4. The towels were small and very scratchy5. The front desk staff was friendly but they double charged my roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r396930685-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396930685</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>I'm a red roof person, but sometimes hotels can have a name, but have mismanagement. I was so thankful about this one. There was even a continental breakfast offered, which was a first for any of the red roof one I've visited. I would definitely recommend. And the attendants were very nice and helpful because I couldn't find my phone and she offered to dial my number from her personal cell phone to help me find it. I wish I had gotten her name.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>I'm a red roof person, but sometimes hotels can have a name, but have mismanagement. I was so thankful about this one. There was even a continental breakfast offered, which was a first for any of the red roof one I've visited. I would definitely recommend. And the attendants were very nice and helpful because I couldn't find my phone and she offered to dial my number from her personal cell phone to help me find it. I wish I had gotten her name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r389798699-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389798699</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean comfortable </t>
+  </si>
+  <si>
+    <t>Rooms are nice beds are good. Room has everything in it needed. Microwave refrigerator flat screen and even a sofa. There is plenty around and it's next to highway. The only problem we had was staying there in July and the pool was out. Other then that reasonable priced well maintained. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms are nice beds are good. Room has everything in it needed. Microwave refrigerator flat screen and even a sofa. There is plenty around and it's next to highway. The only problem we had was staying there in July and the pool was out. Other then that reasonable priced well maintained. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r379956433-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379956433</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Red roof review</t>
+  </si>
+  <si>
+    <t>Mike from the front desk was very helpful and really had my best interest.. the room was well cleaned and also stylish.. close to restaurants.. definitely one I would visit again... online deals are usually cheaper than actually goin inside to pay.. posted 6-5-16MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Mike from the front desk was very helpful and really had my best interest.. the room was well cleaned and also stylish.. close to restaurants.. definitely one I would visit again... online deals are usually cheaper than actually goin inside to pay.. posted 6-5-16More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r367545908-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367545908</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Nice Rooms for the Price</t>
+  </si>
+  <si>
+    <t>This is a very good hotel for the price. It's located off 290 headed west and is situated close to restaurants and shopping not too far down 290. There is a lot of construction going on, but you can get around for the most part. Staff is friendly, beds are comfortable, and the guests are by and large okay. I never see or hear anyone getting too rowdy when I have stayed. The beds and rooms are up to date, there are nice televisions in the rooms, and I can't say enough about the bathrooms. They're pretty nice and I have always had hot water. The continental breakfast leaves something to be desired. You're better off going to a local donut shop, I-hop, or getting breakfast at a nearby restaurant or taco truck/stand. There is adequate security in the parking lot at all times as well as some surveillance from the inside. I've never had a problem and felt safe coming here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>This is a very good hotel for the price. It's located off 290 headed west and is situated close to restaurants and shopping not too far down 290. There is a lot of construction going on, but you can get around for the most part. Staff is friendly, beds are comfortable, and the guests are by and large okay. I never see or hear anyone getting too rowdy when I have stayed. The beds and rooms are up to date, there are nice televisions in the rooms, and I can't say enough about the bathrooms. They're pretty nice and I have always had hot water. The continental breakfast leaves something to be desired. You're better off going to a local donut shop, I-hop, or getting breakfast at a nearby restaurant or taco truck/stand. There is adequate security in the parking lot at all times as well as some surveillance from the inside. I've never had a problem and felt safe coming here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r330417332-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330417332</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Road-weary traveler gets warm greeting and super service</t>
+  </si>
+  <si>
+    <t>I am sitting in my spacious hotel room on the third floor after a harrowing trip with accidents, closed bridges and tight jersey walls...and a very sick little Pomeranian.  Derek greeted me in my extreme meltdown, gave me a terrific, quiet room, extra towels and everything I needed to care for my canine family and me.  This kind of great service from a friendly staffer along with a really lovely room is what makes some Red Roof Inns, this one especially, just great.  You can choose other red roof inns in Houston but here is a tip: this one is just a short walk to a superb barbecue place called Pappas Barbeque.  I am thinking of staying an extra day!  Many thanks to Derek and Red Roof  inn Brookhollow!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded December 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2015</t>
+  </si>
+  <si>
+    <t>I am sitting in my spacious hotel room on the third floor after a harrowing trip with accidents, closed bridges and tight jersey walls...and a very sick little Pomeranian.  Derek greeted me in my extreme meltdown, gave me a terrific, quiet room, extra towels and everything I needed to care for my canine family and me.  This kind of great service from a friendly staffer along with a really lovely room is what makes some Red Roof Inns, this one especially, just great.  You can choose other red roof inns in Houston but here is a tip: this one is just a short walk to a superb barbecue place called Pappas Barbeque.  I am thinking of staying an extra day!  Many thanks to Derek and Red Roof  inn Brookhollow!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r329971120-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329971120</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Great price , clean, quiet, next to hwy</t>
+  </si>
+  <si>
+    <t>I have stayed here a few times on my regular trips to Houston.  This is a great place to stay for business layovers and also for families travelling on a budget .  I have stayed at quite a few other "national" chains in this price range  in Houston  before and even some that were above this price range  and they are very spotty at best .  The place is quiet and pretty clean .  The parking lot is well lit . They offer coffee in the mornings  and Wi-Fi  . Again not a lot of bells and whistles but they are consistently clean and a great deal for the business traveler or the family looking for a safe clean place to stay .  There are a lot of good  restaurants and stores in the area . MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed here a few times on my regular trips to Houston.  This is a great place to stay for business layovers and also for families travelling on a budget .  I have stayed at quite a few other "national" chains in this price range  in Houston  before and even some that were above this price range  and they are very spotty at best .  The place is quiet and pretty clean .  The parking lot is well lit . They offer coffee in the mornings  and Wi-Fi  . Again not a lot of bells and whistles but they are consistently clean and a great deal for the business traveler or the family looking for a safe clean place to stay .  There are a lot of good  restaurants and stores in the area . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r321156551-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321156551</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Great room and service</t>
+  </si>
+  <si>
+    <t>Easy access to stairs and elevator on the second floor. Great room, loved the usb wall outlets. All hotel staff was great overall. I usually don't stay in these type of hotels, but I have to admit that I was not disappointed. I genuinely liked it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded November 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2015</t>
+  </si>
+  <si>
+    <t>Easy access to stairs and elevator on the second floor. Great room, loved the usb wall outlets. All hotel staff was great overall. I usually don't stay in these type of hotels, but I have to admit that I was not disappointed. I genuinely liked it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r281217142-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281217142</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Returned again and again</t>
+  </si>
+  <si>
+    <t>On my prior visit, I stated I would compare other hotels in the area (budget hotels that is, I travel for work on my dime).  Well, I did and I have a better appreciation for this Red Roof Inn.  Nothing I have found in this price range has been anywhere close to my stay(s) here.  On my first return(s), I was placed in a rooms that, I assume, as have remodeled.  And frankly, it was as nice and comfortable (and clean and quiet) as any Hilton I stayed at (I used to travel for work at another employer and on THEIR dime (dollar that is)).  The wireless signal was much stronger also.  I have quit shopping around and when I stay in a hotel on a budget (mine) I will just head straight to this place.  My need for a hotel has diminished somewhat since I have found other, non-hotel, accommodations. But, I'm sure the need will arise now and then.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>On my prior visit, I stated I would compare other hotels in the area (budget hotels that is, I travel for work on my dime).  Well, I did and I have a better appreciation for this Red Roof Inn.  Nothing I have found in this price range has been anywhere close to my stay(s) here.  On my first return(s), I was placed in a rooms that, I assume, as have remodeled.  And frankly, it was as nice and comfortable (and clean and quiet) as any Hilton I stayed at (I used to travel for work at another employer and on THEIR dime (dollar that is)).  The wireless signal was much stronger also.  I have quit shopping around and when I stay in a hotel on a budget (mine) I will just head straight to this place.  My need for a hotel has diminished somewhat since I have found other, non-hotel, accommodations. But, I'm sure the need will arise now and then.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r278200729-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278200729</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Not bad, but nothing positive as well</t>
+  </si>
+  <si>
+    <t>Pets stay free, so we didn't need to leave our cutie at boarding. This is plus! No breakfast. Room was tiny. Front desk was very sleepy, we had to wait until he wakes up to register us. Plus it was hard to find out wi if password. It was pretty cold night, I turned heat on, and terrible smell came out of AC. So had to turn it off. Wifi was not good in our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Pets stay free, so we didn't need to leave our cutie at boarding. This is plus! No breakfast. Room was tiny. Front desk was very sleepy, we had to wait until he wakes up to register us. Plus it was hard to find out wi if password. It was pretty cold night, I turned heat on, and terrible smell came out of AC. So had to turn it off. Wifi was not good in our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r270227931-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270227931</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>To Dirty</t>
+  </si>
+  <si>
+    <t>My frist day at the place was not so pleasent as i ended up finding trash in areas of my room, such as a un-used condom in a cabinet, and used razers in my shower, also my bed had hair in it as well. The front desk people were very nice to me when i had asked them to clean up the room, no problems. Did not like the fact that they had a security detail outside asking if i had reservations at the hotel and at what room, thats a big no no. To cold for the pool as it was outdoor. The rooms looked very modern and beautiful. Slow wifi, good enough for emails and web surfing but not for movies. Expect to see paint on a lot stuff from remodel. Would recommand for looks and price, but they need to work on cleanliness.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>My frist day at the place was not so pleasent as i ended up finding trash in areas of my room, such as a un-used condom in a cabinet, and used razers in my shower, also my bed had hair in it as well. The front desk people were very nice to me when i had asked them to clean up the room, no problems. Did not like the fact that they had a security detail outside asking if i had reservations at the hotel and at what room, thats a big no no. To cold for the pool as it was outdoor. The rooms looked very modern and beautiful. Slow wifi, good enough for emails and web surfing but not for movies. Expect to see paint on a lot stuff from remodel. Would recommand for looks and price, but they need to work on cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r257970594-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257970594</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>As Reviewed, acceptable if on a budget</t>
+  </si>
+  <si>
+    <t>I stayed for 5 nights and have no major complaints.  The most important things to me are quiet, clean and comfortable. Quiet - scored 100.  Clean-scored 100. Comfortable scored 90.  On the comfort side, it would have been nice to have a plastic bag to put my dirty laundry in and a closet would have been nice.  Neither are big deals to me.... on this BUSINESS trip.  If I had my wife with me, this place probably wouldn't fly, she would require a closet and a little more upscale appearance.  The Wi-Fi, though advertised as available, was too weak for me to pick up.  But, again, for ME, not a biggie.  My room was on the wall at the end of the hall, far away from the office, and I assume the Wi-Fi.   
+This hotel is fine if you want to save a dime.  The folks in the halls looked pretty rough, definitely a different element, but the locks on the doors are strong.  My vehicle was not vandalized or broken into.  There is no restaurant, but there is a clean pool. The windows in the lobby entrance doors were dirty and the grounds in the front had cigarette butts on them.  The front door, left side, to the lobby entrance was broken, but the right side worked.  I wonder how long it has been this way.  
+I am returning to Houston next week and found the hotel right next...I stayed for 5 nights and have no major complaints.  The most important things to me are quiet, clean and comfortable. Quiet - scored 100.  Clean-scored 100. Comfortable scored 90.  On the comfort side, it would have been nice to have a plastic bag to put my dirty laundry in and a closet would have been nice.  Neither are big deals to me.... on this BUSINESS trip.  If I had my wife with me, this place probably wouldn't fly, she would require a closet and a little more upscale appearance.  The Wi-Fi, though advertised as available, was too weak for me to pick up.  But, again, for ME, not a biggie.  My room was on the wall at the end of the hall, far away from the office, and I assume the Wi-Fi.   This hotel is fine if you want to save a dime.  The folks in the halls looked pretty rough, definitely a different element, but the locks on the doors are strong.  My vehicle was not vandalized or broken into.  There is no restaurant, but there is a clean pool. The windows in the lobby entrance doors were dirty and the grounds in the front had cigarette butts on them.  The front door, left side, to the lobby entrance was broken, but the right side worked.  I wonder how long it has been this way.  I am returning to Houston next week and found the hotel right next door, which looks cleaner/newer at the same price so even though I would stay here again, I'm giving the neighbor a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>RedRoofInn290, Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2015</t>
+  </si>
+  <si>
+    <t>I stayed for 5 nights and have no major complaints.  The most important things to me are quiet, clean and comfortable. Quiet - scored 100.  Clean-scored 100. Comfortable scored 90.  On the comfort side, it would have been nice to have a plastic bag to put my dirty laundry in and a closet would have been nice.  Neither are big deals to me.... on this BUSINESS trip.  If I had my wife with me, this place probably wouldn't fly, she would require a closet and a little more upscale appearance.  The Wi-Fi, though advertised as available, was too weak for me to pick up.  But, again, for ME, not a biggie.  My room was on the wall at the end of the hall, far away from the office, and I assume the Wi-Fi.   
+This hotel is fine if you want to save a dime.  The folks in the halls looked pretty rough, definitely a different element, but the locks on the doors are strong.  My vehicle was not vandalized or broken into.  There is no restaurant, but there is a clean pool. The windows in the lobby entrance doors were dirty and the grounds in the front had cigarette butts on them.  The front door, left side, to the lobby entrance was broken, but the right side worked.  I wonder how long it has been this way.  
+I am returning to Houston next week and found the hotel right next...I stayed for 5 nights and have no major complaints.  The most important things to me are quiet, clean and comfortable. Quiet - scored 100.  Clean-scored 100. Comfortable scored 90.  On the comfort side, it would have been nice to have a plastic bag to put my dirty laundry in and a closet would have been nice.  Neither are big deals to me.... on this BUSINESS trip.  If I had my wife with me, this place probably wouldn't fly, she would require a closet and a little more upscale appearance.  The Wi-Fi, though advertised as available, was too weak for me to pick up.  But, again, for ME, not a biggie.  My room was on the wall at the end of the hall, far away from the office, and I assume the Wi-Fi.   This hotel is fine if you want to save a dime.  The folks in the halls looked pretty rough, definitely a different element, but the locks on the doors are strong.  My vehicle was not vandalized or broken into.  There is no restaurant, but there is a clean pool. The windows in the lobby entrance doors were dirty and the grounds in the front had cigarette butts on them.  The front door, left side, to the lobby entrance was broken, but the right side worked.  I wonder how long it has been this way.  I am returning to Houston next week and found the hotel right next door, which looks cleaner/newer at the same price so even though I would stay here again, I'm giving the neighbor a try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r257685065-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257685065</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Does what it is supposed toGreat free wifi Nice room and bathroom Free parkingPillows are too hard and uncomfortable thoughQuick check in and outNear some good bars across the freeway Quite enoughRecommend this oneCould be a bit cheaper though MoreShow less</t>
+  </si>
+  <si>
+    <t>Does what it is supposed toGreat free wifi Nice room and bathroom Free parkingPillows are too hard and uncomfortable thoughQuick check in and outNear some good bars across the freeway Quite enoughRecommend this oneCould be a bit cheaper though More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r255871162-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255871162</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>What you expect for the price.</t>
+  </si>
+  <si>
+    <t>Bad water pressure and an old showerhead, a hole in the wall, and questionable other guests were my biggest complaints.  Don't know if the area is rough or not but I saw several police cars there over the 3 nights I vistied and one  night I got back to the hotel at 12:30 AM and the hotel security followed me around the parking lot watching me.  I guess that is what I get for taking my wife out to a dinner and movie!!You get what you pay for, If your just getting a room to sleep in its alright.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>RedRoofInn290, General Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Bad water pressure and an old showerhead, a hole in the wall, and questionable other guests were my biggest complaints.  Don't know if the area is rough or not but I saw several police cars there over the 3 nights I vistied and one  night I got back to the hotel at 12:30 AM and the hotel security followed me around the parking lot watching me.  I guess that is what I get for taking my wife out to a dinner and movie!!You get what you pay for, If your just getting a room to sleep in its alright.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r251556537-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251556537</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>I stayed here on business. When I arrived I automatically assumed it was gonna be another crappy hotel. Boy was I surprised! The front desk staff was pleasant. But the big shocker was the room. My room was nice and clean. Nice furniture. Big flat screen tv with a small fridge and microwave. The hotel is right along the freeway, plenty of restaurants nearby as well. The hotel was very quiet. I had a very comfortable stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r250075950-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250075950</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>The staff members was great. From the clerk to housekeeping!!! Very quiet at night and the staff made sure we had extra towels and toilet tissue. Traveling from Jackson, MS to Houston, Texas we really needed a nice place to sleep. I read the reviews before we booked the room and they was horrible! I was scared, people talked about prostitution and Crystal meth. But I didn't notice none of that. The room was remodeled, very clean, and nice. I would most definitely stay again!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r249043193-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249043193</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay!! </t>
+  </si>
+  <si>
+    <t>Small little inn about 30 min away from Airport service was outstanding price was affordable would recommend it any day if your looking to save some $$$ on your vacation, service was done each day as requested! Staff is friendly and available 24 hrs... MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>RedRoofInn290, Front Office Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded January 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2015</t>
+  </si>
+  <si>
+    <t>Small little inn about 30 min away from Airport service was outstanding price was affordable would recommend it any day if your looking to save some $$$ on your vacation, service was done each day as requested! Staff is friendly and available 24 hrs... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r246250732-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246250732</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Good for business and/or family trip</t>
+  </si>
+  <si>
+    <t>My husband was there for business and I tagged along for fun. This location is great for both kinds of trip. There was plenty of restaurants and shopping around us and the Galleria was not too far either. He loved the free and fast wifi. I loved the staff and service. Great rates and the room was huge. It is well kept up withMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>RedRoofInn290, FDM at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded January 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2015</t>
+  </si>
+  <si>
+    <t>My husband was there for business and I tagged along for fun. This location is great for both kinds of trip. There was plenty of restaurants and shopping around us and the Galleria was not too far either. He loved the free and fast wifi. I loved the staff and service. Great rates and the room was huge. It is well kept up withMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r246091167-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246091167</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Frontdesk staff is very friendly and knowledgeable</t>
+  </si>
+  <si>
+    <t>The staff was great.house keeping was fast..one day a lost my power supply plug for my phone.I called the front desk they called the one cleaned.she told them where she put it..and where she had found it..honesty.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was great.house keeping was fast..one day a lost my power supply plug for my phone.I called the front desk they called the one cleaned.she told them where she put it..and where she had found it..honesty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r245855284-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245855284</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay!!!</t>
+  </si>
+  <si>
+    <t>We were visiting family and needed a place to stay for three nights. We checked into this hotel with an amazing service. The location was perfect for our area of Houston. This hotel has a very contemporary look, which we enjoyed. First, Mary checked us in with a friendly welcoming service. She explained the hotel's amenities to us. Then, the rooms are very up to date. The flat screen TV was an a plus. The whole room looked very well put together. Last, the housekeeping staff was very friendly every morning. We would definitely stay here on our next trip back to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>RedRoofInn290, FDM at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded December 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2014</t>
+  </si>
+  <si>
+    <t>We were visiting family and needed a place to stay for three nights. We checked into this hotel with an amazing service. The location was perfect for our area of Houston. This hotel has a very contemporary look, which we enjoyed. First, Mary checked us in with a friendly welcoming service. She explained the hotel's amenities to us. Then, the rooms are very up to date. The flat screen TV was an a plus. The whole room looked very well put together. Last, the housekeeping staff was very friendly every morning. We would definitely stay here on our next trip back to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r243256478-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243256478</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>pleasant stay, new clean rooms.</t>
+  </si>
+  <si>
+    <t>The staff and  service was great. We were very happy with the new remodeled rooms. The housekeeping staff were helpful and did a excellent job in cleaning. The room wood floors look great and the big flat screen TV was a plus. We will be staying at this property on our next travel trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jay H, General Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded December 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2014</t>
+  </si>
+  <si>
+    <t>The staff and  service was great. We were very happy with the new remodeled rooms. The housekeeping staff were helpful and did a excellent job in cleaning. The room wood floors look great and the big flat screen TV was a plus. We will be staying at this property on our next travel trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r242537575-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242537575</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Clean rooms, Helpful staff</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for 2 weeks and enjoyed it. The staff is very friendly and helpful. The rooms were clean. It was a peaceful stay. Although the painting was in progress, it did not disturb us. Overall a clean hotel. There are restaurants in less than 0.4 miles from the hotel - Golden Corral and Pho Vang 2. This hotel is located on the Northwest freeway. There are Walmart, BestBuy and Target around. Wifi is free, parking is free. No airport pickup. The only problem was that this hotel doesn't provide food. I would have been very satisfied if breakfast was offered. Otherwise an excellent stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r237904956-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237904956</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Nice Place. Will stay again.</t>
+  </si>
+  <si>
+    <t>Stayed here in Nov. on business. Have been using Red Roof chain a lot since they have updated. This was one of the nicer placed. Room was huge, clean and in a nice location. The internet was fantastic. Red Roof internet has been such a problem with us at some of the other locations that we will not go back. NOT a problem here. The only bad part of the stay was the property next door. I believe that it is an extended stay. Appeared to cater to illegal "Day Laborers" Typical obnoxious Mexicans. Loud accordion music and management that obviously could have not cared less.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r228378802-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228378802</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>For the short time I was there I enjoyed my stay, I loved walking down to a fresh cup of Folgers in my cup. the staff was friendly and very helpful. the property looked clean overall inside and out. Thank you I will most definitely recommand your property and will be staying again!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r215261914-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215261914</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Extremely Pleased</t>
+  </si>
+  <si>
+    <t>I usually don't stay at a hotel like Red Roof Inn, however, I was so pleased we decided to stay at this one. The staff is very friendly especially Mary at the front desk and the manager. The rooms are newly renovated and clean. Good value for the spacious rooms. Lots of restaurants nearby.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r209661144-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209661144</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Get what you pay for...</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for business for three weeks. The Internet is TERRIBLE. Basically non-existent. The staff  (minus Jay and Lawrence) were rude. The manager was incredibly rude. There was a murder suicide WHILE we stayed here and VERY sketchy people in and out of the parking lot. The security guard seems like he's doing his job but from what is can see and what we experienced, he isnt.  The room we had smelled like weed and the maids will go into your room whether or not you put the sign up. The rooms were "updated" but as people who work during the night and sleep all day.. we really wished the curtains were better. Shower pressure is low. All and all -- we had a bad experience.  It don't know if it was a fluke but we wouldn't choose here again. Affordable though.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for business for three weeks. The Internet is TERRIBLE. Basically non-existent. The staff  (minus Jay and Lawrence) were rude. The manager was incredibly rude. There was a murder suicide WHILE we stayed here and VERY sketchy people in and out of the parking lot. The security guard seems like he's doing his job but from what is can see and what we experienced, he isnt.  The room we had smelled like weed and the maids will go into your room whether or not you put the sign up. The rooms were "updated" but as people who work during the night and sleep all day.. we really wished the curtains were better. Shower pressure is low. All and all -- we had a bad experience.  It don't know if it was a fluke but we wouldn't choose here again. Affordable though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r190063568-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190063568</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>good service</t>
+  </si>
+  <si>
+    <t>Jay C. and Raquel  at  the front desk are very friendly and helpful , they go over and beyond to make the guest feel at home and if the guest  need anything they are there to help. As for the housekeeping staff they are all great the GM Jay H. Is also a very friendly. I would recommend this hotel to any one with a family or on business</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r162232982-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162232982</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Beware of location. 1star hotel</t>
+  </si>
+  <si>
+    <t>Some hotel web sites have this hotel location listed as being in the Galleria, this hotel is really located in Brookhollow. The staff is SUPER, the rooms are a little run down, the rooms I stayed in have parquet flooring, the furniture,curtains need replacing, mattress saggy, if you are thinking of watching a flat screen tv, forget it, tv's are late 1990's, the onlyflat screen I saw was in lobby. This hotel caters to construction workers during the week, the location is great, across the hwy 5-10 resturants,movie theatre,Best buy,Walmart etc.  PS there are several 3-4 star hotels in area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r160390934-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160390934</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Probably not of you can stay somewhere else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took a group to stay there. Rooms not as promised, smoking instead of nonsmoking, actually saw some bad things happen there. Frightened some of our people. Won't be back. There are other options in the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r155790371-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155790371</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>hard wood floors and everything!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask for their renovated rooms. My room was very clean, updated, and bright. The building has a concrete structure so its pretty quiet too. I was worried because of the construction outside but I didnt have any issues. </t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r155737197-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155737197</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Good Enough!</t>
+  </si>
+  <si>
+    <t>Stayed one night while in Houston on business and it was just find. $45.99 plus tax for clean, fresh smelling quite room on third floor. King room was larger than usual with huge desk and work area. Micro, fridge and coffee maker all in working order. Quick and easy check in. Within easy walking distance of Pappas BBQ; great place to eat.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r147807301-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147807301</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>New rooms and the staff are great.</t>
+  </si>
+  <si>
+    <t>Clean, new rooms, friendly staff, price is right. Rate A plus. They have been working on this hotel for a few months now and it looks great. I have to work in houston once a month and I am so glad I found the red roof inn on northwest freeway. The best deal in houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r140612404-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140612404</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>People can be so picky!...</t>
+  </si>
+  <si>
+    <t>I mean really people...its the Red Roof Inn!! What are you expecting? I believe some thought they'd receive treatment as though theywere at the Waldorf Astoria!?!?!? Quite frankly, after reading these reviews, I expected a wretched night of gun shooting, flying roaches and stained sheets, only to walk out to a window shattered and broken into vehicle. To the contrary, it was average. No bugs, no stains, no loud suspicious sounds, no vehicle vandalism, no crime (that I'm aware of). The carpets certainly could have been vacuumed and shampooed better and the fridge never adequately cooled enough for my taste, but I didn't go to the Red Rood intending to vacation for a week with my family and pets. This is no luxurious retreat, but its not the "bates motel" either. Cheap price, quiet get a way, private, clean enough...works for me!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Vinny P, General Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2012</t>
+  </si>
+  <si>
+    <t>I mean really people...its the Red Roof Inn!! What are you expecting? I believe some thought they'd receive treatment as though theywere at the Waldorf Astoria!?!?!? Quite frankly, after reading these reviews, I expected a wretched night of gun shooting, flying roaches and stained sheets, only to walk out to a window shattered and broken into vehicle. To the contrary, it was average. No bugs, no stains, no loud suspicious sounds, no vehicle vandalism, no crime (that I'm aware of). The carpets certainly could have been vacuumed and shampooed better and the fridge never adequately cooled enough for my taste, but I didn't go to the Red Rood intending to vacation for a week with my family and pets. This is no luxurious retreat, but its not the "bates motel" either. Cheap price, quiet get a way, private, clean enough...works for me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r137479790-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137479790</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>Not Good Experience</t>
+  </si>
+  <si>
+    <t>I was there a total of 3 nights (I should have never sayed passed the first). When I walked into my room there it was horrable there was refrigerator just sittingn the room next to bed, no place for it so they just stuck it any where. Then when I asked where my microwave was they brought me another refrigerator (smaller) with one stuck to the top of it. First night I was there they had to move me because the phone in the room did not work.The second night I was asked to move again, they had to move me a third time due to work being done in the motel. Floors, Bathtub yuck and fleas, elevetor was a mess. Almost every time I went past the front desk they would ask me what room I was in... They could not keep up with where they had put people, the reason I know is because I got a 5:45am wake up call I did not ask for.The people that worked there were without personality, the only one I felt had any was Lawrance who I believe only worked weekend nights. I'm sorry but very bad experience will not go backMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I was there a total of 3 nights (I should have never sayed passed the first). When I walked into my room there it was horrable there was refrigerator just sittingn the room next to bed, no place for it so they just stuck it any where. Then when I asked where my microwave was they brought me another refrigerator (smaller) with one stuck to the top of it. First night I was there they had to move me because the phone in the room did not work.The second night I was asked to move again, they had to move me a third time due to work being done in the motel. Floors, Bathtub yuck and fleas, elevetor was a mess. Almost every time I went past the front desk they would ask me what room I was in... They could not keep up with where they had put people, the reason I know is because I got a 5:45am wake up call I did not ask for.The people that worked there were without personality, the only one I felt had any was Lawrance who I believe only worked weekend nights. I'm sorry but very bad experience will not go backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r134584563-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134584563</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Not a good place to stay</t>
+  </si>
+  <si>
+    <t>This property is not in a good location to stay from a safety perspective. I travel 20+ weeks a year so I see my fair share of hotels. I rarely write a review of a property that I stay at but this one I feel was worth commenting on.The front desk personnel were very nice and provided me with a ground floor room which I thought would be great since I would not have to drag my luggage up to another floor.The minute I checked into my room I thought maybe I should go somewhere else. The room was terrible. It had dirty carpets, stains on the walls, and beat up furniture. It was just a filthy room. There was a "punch hole" in the bathroom door.My company prepaid the room so I decided to stay. To add to the amenenties the room next door to me must have been selling drugs as they had several visitors throughout the night. One of deals must have went bad as the person staying in the room next door sent his dog out to take  care of the bad deal.What a bad night from any and every aspect.Do not stay here for your own good and safety.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property is not in a good location to stay from a safety perspective. I travel 20+ weeks a year so I see my fair share of hotels. I rarely write a review of a property that I stay at but this one I feel was worth commenting on.The front desk personnel were very nice and provided me with a ground floor room which I thought would be great since I would not have to drag my luggage up to another floor.The minute I checked into my room I thought maybe I should go somewhere else. The room was terrible. It had dirty carpets, stains on the walls, and beat up furniture. It was just a filthy room. There was a "punch hole" in the bathroom door.My company prepaid the room so I decided to stay. To add to the amenenties the room next door to me must have been selling drugs as they had several visitors throughout the night. One of deals must have went bad as the person staying in the room next door sent his dog out to take  care of the bad deal.What a bad night from any and every aspect.Do not stay here for your own good and safety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r127783905-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127783905</t>
+  </si>
+  <si>
+    <t>04/12/2012</t>
+  </si>
+  <si>
+    <t>The good and bad</t>
+  </si>
+  <si>
+    <t>I've had to stay here w my family upon relocating. Yes the carpet and wallpaper in the halls is tacky needs to desperately be renovated. The housekeeping staff is nice and helpful. A few front desk employees stand out such as Jessica L. Who works with you is courteous understanding and has great customer service. Most of the other front desk are texting or surfing the internet and don't greet you. Jessica talks to you like an old friend. Unfortunately management is not great. The manager is not compassionate when helping with billing issues or concerns. Refuses to apologize for misunderstandings. I do recommend the hotel though based on price and staff just don't expect empathy from management. MoreShow less</t>
+  </si>
+  <si>
+    <t>I've had to stay here w my family upon relocating. Yes the carpet and wallpaper in the halls is tacky needs to desperately be renovated. The housekeeping staff is nice and helpful. A few front desk employees stand out such as Jessica L. Who works with you is courteous understanding and has great customer service. Most of the other front desk are texting or surfing the internet and don't greet you. Jessica talks to you like an old friend. Unfortunately management is not great. The manager is not compassionate when helping with billing issues or concerns. Refuses to apologize for misunderstandings. I do recommend the hotel though based on price and staff just don't expect empathy from management. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r122768275-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122768275</t>
+  </si>
+  <si>
+    <t>01/08/2012</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>I came into town at the last minute and at this hotel. It was a very pleasant stay and the front desk clerk was extremely nice and professional. If I had to stay in that area again,I would definitely stay again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r121182284-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121182284</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Very Nasty</t>
+  </si>
+  <si>
+    <t>First of all at check in I was given a room that I did not reserve. Front desk tried to help the best they could. Then told me I would get the correct room the next day. Slept in the first room given, it was okay. Floor very dirty and it did not come with micro-frige that I was suppose to have. Hallways very dirty. Only ice machine working is in lobby. Lobby was dirty. Stair ways dirty as well. Second day of stay I was transferred to the room I requested, but it still did not have the micro-frige, they had to bring it from another room. The second room had roaches. Scared to go to sleep and have my luggage. There was a bad smell in second room and a bulb was blowed. I was very disatisfied and don't plan on coming back to this location. The manager was unfriendly as well. The front desk staff was friendly and helpful. They need to spray for the roaches, clean carpets, fix holes in walls, paint, deep cleaning. Some care needs to be put into this place. No one seems to care. Not impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>First of all at check in I was given a room that I did not reserve. Front desk tried to help the best they could. Then told me I would get the correct room the next day. Slept in the first room given, it was okay. Floor very dirty and it did not come with micro-frige that I was suppose to have. Hallways very dirty. Only ice machine working is in lobby. Lobby was dirty. Stair ways dirty as well. Second day of stay I was transferred to the room I requested, but it still did not have the micro-frige, they had to bring it from another room. The second room had roaches. Scared to go to sleep and have my luggage. There was a bad smell in second room and a bulb was blowed. I was very disatisfied and don't plan on coming back to this location. The manager was unfriendly as well. The front desk staff was friendly and helpful. They need to spray for the roaches, clean carpets, fix holes in walls, paint, deep cleaning. Some care needs to be put into this place. No one seems to care. Not impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r115668001-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115668001</t>
+  </si>
+  <si>
+    <t>07/22/2011</t>
+  </si>
+  <si>
+    <t>Best quality for the money.</t>
+  </si>
+  <si>
+    <t>Red Roof offers the absolute best quality for the money anywhere. Wouldn't stay anywhere else. No other hotel chain equals this perfect combination of quality and economy all in one package.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r115459761-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115459761</t>
+  </si>
+  <si>
+    <t>07/17/2011</t>
+  </si>
+  <si>
+    <t>Not the best</t>
+  </si>
+  <si>
+    <t>My kids, my dog and myself  stayed here while my husband was at a meeting.  Felt very dirty and old and it's not in the nicest neighborhood.  I must say, there are places to eat near by so that was a plus!  My husband walks in after his and says, hey I was thinking about staying the night and I said no way.  So we basically stayed for 4 hours.  There was no way I wanted to stay any longer than I had to.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r101162029-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>101162029</t>
+  </si>
+  <si>
+    <t>03/22/2011</t>
+  </si>
+  <si>
+    <t>Desieved by other reviews</t>
+  </si>
+  <si>
+    <t>It is a very dirty hotel. Carpet outside my room has vomit splatter. The phone was not working when I walked in, the remote didn´t work, and the fridge didn´t either but they changed them all. The lamp above the table did not have a bulb but I just didn´t bother say anything anymore.The room smelled like smoke even though they stated it was a non-smoking room.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r89516319-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89516319</t>
+  </si>
+  <si>
+    <t>12/10/2010</t>
+  </si>
+  <si>
+    <t>WORST hotel we've ever stayed at!!!!  BEWARE!!!!!!!</t>
+  </si>
+  <si>
+    <t>Hotel was a dump! Absolutely horrible. We had to switch rooms 3 times... 1st one didn't have electricity, 2nd one was wet and mildewed, 3rd one had vomit splattered and dried all over the toilet and leaves all over the floor... 4th one wasn't great, but we were exhausted and accepted it. There were men's hairs all in the sheets, so they obviously made the bed up with dirty ones. The carpet throughout the hotel was dirty and stained. Stairwell smelled of urine. Front desk associate was unprofessional and did not apologize for the inconvenieces. Furnishings were in bad shape, and hotel had a general shabbiness to it, as well as being very unclean. It was so filthy that we wouldn't have even stayed there for one night, but we were so tired and had our dog and newborn with us and had to get up very early the next morning to go to the airport. Hands down the worst motel we have ever stayed at.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>Hotel was a dump! Absolutely horrible. We had to switch rooms 3 times... 1st one didn't have electricity, 2nd one was wet and mildewed, 3rd one had vomit splattered and dried all over the toilet and leaves all over the floor... 4th one wasn't great, but we were exhausted and accepted it. There were men's hairs all in the sheets, so they obviously made the bed up with dirty ones. The carpet throughout the hotel was dirty and stained. Stairwell smelled of urine. Front desk associate was unprofessional and did not apologize for the inconvenieces. Furnishings were in bad shape, and hotel had a general shabbiness to it, as well as being very unclean. It was so filthy that we wouldn't have even stayed there for one night, but we were so tired and had our dog and newborn with us and had to get up very early the next morning to go to the airport. Hands down the worst motel we have ever stayed at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r86870940-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>86870940</t>
+  </si>
+  <si>
+    <t>11/12/2010</t>
+  </si>
+  <si>
+    <t>Clean Rooms w/ Cheap Rates</t>
+  </si>
+  <si>
+    <t>Stayed overnight and expected the worst when the front desk clerk stated what the rate was.  The lobby and parking lot was clean and inviting but the cleanliness of the rooms was the schocker with the rate recieved.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r84742426-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>84742426</t>
+  </si>
+  <si>
+    <t>10/25/2010</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service for extremely low rate</t>
+  </si>
+  <si>
+    <t>Very surprised by the level of service of this low budget hotel.  Service on par with any big chain.  Front Desk clerk was courteous and rooms were cleaned.  Suggest renovation of the rooms.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r53960904-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>53960904</t>
+  </si>
+  <si>
+    <t>01/20/2010</t>
+  </si>
+  <si>
+    <t>The STAFF is the defining asset...</t>
+  </si>
+  <si>
+    <t>The staff is the defining asset  of this Red Roof Inn location. Everyone is extremely helpful and accommodating. In addition, you will also enjoy both a comfortable and clean room.This location offers self service coffee in the lobby as well as vending machines and there are plenty of restaurants located nearby within walking and driving distance.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r17771466-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>17771466</t>
+  </si>
+  <si>
+    <t>07/10/2008</t>
+  </si>
+  <si>
+    <t>Terrible Racist Establishment</t>
+  </si>
+  <si>
+    <t>Me and a group that I manage checked in no problem. We were in the hotel for three days and the last day we were accused of writing graffiti on the walls, and we were all in a room watching tv. Black people dont do grafitti for one and it was all by a kids room that looked like a skater kid yet we were accused out of all the people that were there. The front desk lady was very rude, the manager was rude and they called the police on us. Made us leave the hotel after we were there for three days with no problem. We were forced to drive back to dallas because we didnt have extra money for another hotel room. BS!!! DONT STAY HERE!!! LAWSUIT IS COMINGMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>Me and a group that I manage checked in no problem. We were in the hotel for three days and the last day we were accused of writing graffiti on the walls, and we were all in a room watching tv. Black people dont do grafitti for one and it was all by a kids room that looked like a skater kid yet we were accused out of all the people that were there. The front desk lady was very rude, the manager was rude and they called the police on us. Made us leave the hotel after we were there for three days with no problem. We were forced to drive back to dallas because we didnt have extra money for another hotel room. BS!!! DONT STAY HERE!!! LAWSUIT IS COMINGMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1943,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1975,4188 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>214</v>
+      </c>
+      <c r="X23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>229</v>
+      </c>
+      <c r="X24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>238</v>
+      </c>
+      <c r="X25" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>246</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>247</v>
+      </c>
+      <c r="X26" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>262</v>
+      </c>
+      <c r="X28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>270</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>262</v>
+      </c>
+      <c r="X29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>277</v>
+      </c>
+      <c r="O30" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>262</v>
+      </c>
+      <c r="X30" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
+      </c>
+      <c r="O31" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>262</v>
+      </c>
+      <c r="X31" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" t="s">
+        <v>289</v>
+      </c>
+      <c r="L32" t="s">
+        <v>290</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>291</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O34" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>307</v>
+      </c>
+      <c r="X34" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" t="s">
+        <v>316</v>
+      </c>
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" t="s">
+        <v>322</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>323</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>324</v>
+      </c>
+      <c r="X37" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>333</v>
+      </c>
+      <c r="X38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+      <c r="L39" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>333</v>
+      </c>
+      <c r="X39" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>343</v>
+      </c>
+      <c r="J40" t="s">
+        <v>344</v>
+      </c>
+      <c r="K40" t="s">
+        <v>345</v>
+      </c>
+      <c r="L40" t="s">
+        <v>346</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>347</v>
+      </c>
+      <c r="X40" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>351</v>
+      </c>
+      <c r="J41" t="s">
+        <v>352</v>
+      </c>
+      <c r="K41" t="s">
+        <v>353</v>
+      </c>
+      <c r="L41" t="s">
+        <v>354</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>355</v>
+      </c>
+      <c r="X41" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" t="s">
+        <v>360</v>
+      </c>
+      <c r="K42" t="s">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s">
+        <v>362</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>332</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>332</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>369</v>
+      </c>
+      <c r="J44" t="s">
+        <v>370</v>
+      </c>
+      <c r="K44" t="s">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s">
+        <v>372</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>373</v>
+      </c>
+      <c r="O44" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>374</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>375</v>
+      </c>
+      <c r="J45" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s">
+        <v>377</v>
+      </c>
+      <c r="L45" t="s">
+        <v>378</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>379</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>381</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s">
+        <v>384</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>385</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>388</v>
+      </c>
+      <c r="J47" t="s">
+        <v>389</v>
+      </c>
+      <c r="K47" t="s">
+        <v>390</v>
+      </c>
+      <c r="L47" t="s">
+        <v>391</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>392</v>
+      </c>
+      <c r="O47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>394</v>
+      </c>
+      <c r="J48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>396</v>
+      </c>
+      <c r="L48" t="s">
+        <v>397</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>398</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>399</v>
+      </c>
+      <c r="J49" t="s">
+        <v>400</v>
+      </c>
+      <c r="K49" t="s">
+        <v>401</v>
+      </c>
+      <c r="L49" t="s">
+        <v>402</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>403</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>404</v>
+      </c>
+      <c r="J50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K50" t="s">
+        <v>406</v>
+      </c>
+      <c r="L50" t="s">
+        <v>407</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>408</v>
+      </c>
+      <c r="O50" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>409</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>410</v>
+      </c>
+      <c r="J51" t="s">
+        <v>411</v>
+      </c>
+      <c r="K51" t="s">
+        <v>412</v>
+      </c>
+      <c r="L51" t="s">
+        <v>413</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" t="s">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s">
+        <v>418</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>420</v>
+      </c>
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>425</v>
+      </c>
+      <c r="X53" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>428</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>429</v>
+      </c>
+      <c r="J54" t="s">
+        <v>430</v>
+      </c>
+      <c r="K54" t="s">
+        <v>431</v>
+      </c>
+      <c r="L54" t="s">
+        <v>432</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>433</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>435</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>436</v>
+      </c>
+      <c r="J55" t="s">
+        <v>437</v>
+      </c>
+      <c r="K55" t="s">
+        <v>438</v>
+      </c>
+      <c r="L55" t="s">
+        <v>439</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>433</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>441</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>442</v>
+      </c>
+      <c r="J56" t="s">
+        <v>443</v>
+      </c>
+      <c r="K56" t="s">
+        <v>444</v>
+      </c>
+      <c r="L56" t="s">
+        <v>445</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>447</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>448</v>
+      </c>
+      <c r="J57" t="s">
+        <v>449</v>
+      </c>
+      <c r="K57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L57" t="s">
+        <v>451</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>453</v>
+      </c>
+      <c r="J58" t="s">
+        <v>454</v>
+      </c>
+      <c r="K58" t="s">
+        <v>455</v>
+      </c>
+      <c r="L58" t="s">
+        <v>456</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>457</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>459</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>460</v>
+      </c>
+      <c r="J59" t="s">
+        <v>461</v>
+      </c>
+      <c r="K59" t="s">
+        <v>462</v>
+      </c>
+      <c r="L59" t="s">
+        <v>463</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>464</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>465</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>466</v>
+      </c>
+      <c r="J60" t="s">
+        <v>467</v>
+      </c>
+      <c r="K60" t="s">
+        <v>468</v>
+      </c>
+      <c r="L60" t="s">
+        <v>469</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>470</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>471</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>472</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+      <c r="K61" t="s">
+        <v>474</v>
+      </c>
+      <c r="L61" t="s">
+        <v>475</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>476</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>477</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>478</v>
+      </c>
+      <c r="J62" t="s">
+        <v>479</v>
+      </c>
+      <c r="K62" t="s">
+        <v>480</v>
+      </c>
+      <c r="L62" t="s">
+        <v>481</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>482</v>
+      </c>
+      <c r="O62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>484</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>485</v>
+      </c>
+      <c r="J63" t="s">
+        <v>486</v>
+      </c>
+      <c r="K63" t="s">
+        <v>487</v>
+      </c>
+      <c r="L63" t="s">
+        <v>488</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>482</v>
+      </c>
+      <c r="O63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>489</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>490</v>
+      </c>
+      <c r="J64" t="s">
+        <v>491</v>
+      </c>
+      <c r="K64" t="s">
+        <v>492</v>
+      </c>
+      <c r="L64" t="s">
+        <v>493</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>494</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>495</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>496</v>
+      </c>
+      <c r="J65" t="s">
+        <v>497</v>
+      </c>
+      <c r="K65" t="s">
+        <v>498</v>
+      </c>
+      <c r="L65" t="s">
+        <v>499</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>500</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>501</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>502</v>
+      </c>
+      <c r="J66" t="s">
+        <v>503</v>
+      </c>
+      <c r="K66" t="s">
+        <v>504</v>
+      </c>
+      <c r="L66" t="s">
+        <v>505</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>506</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_535.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_535.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="808">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r599017346-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223175</t>
+  </si>
+  <si>
+    <t>599017346</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Had a excellent stay</t>
+  </si>
+  <si>
+    <t>It was a good hotel. If your looking for a clean, safe place on a budget in Houston this is the spot!They have a great weekly rate, and have friendly people at the front desk. Next time it I'll be backMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Hotel Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded July 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2018</t>
+  </si>
+  <si>
+    <t>It was a good hotel. If your looking for a clean, safe place on a budget in Houston this is the spot!They have a great weekly rate, and have friendly people at the front desk. Next time it I'll be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r591496822-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591496822</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>My stays...</t>
+  </si>
+  <si>
+    <t>I stay at this Inn just about every weekend. When I've had air conditioner problems it got fixed right away, if there was something in the room that was missed by housekeeping it gets handled immediately! I've never had any major problems and I enjoy my time at this Inn. I work on the weekends in Houston so I request to be placed on the 3rd floor just in case there might be children in rooms and are up late being kids. I am always accommodated and I greatly appreciate that small blessing. The front desk clerk Angie Rodriguez (short bubbly clerk) is amazing!!!!! She is friendly, efficient and remembers my name as well as room preference. When I had the small housekeeping issue one weekend and came to tell her about it she had housekeeping fix it within minutes. She always has a great attitude and a smiling face. I appreciate her attentiveness to details.  I've watched her to see if she greets other the same and she does, she shows great customer service as a front desk clerk!!  The housekeeping crew are sweet, if I need something in my room and I see them in the hallway they are also accommodating and friendly. The manager Jay is great as well, he too knows my name and it is great to have a manager at a hotel establishment that is friendly and keeps his establishment clean &amp; updated. Angie...I stay at this Inn just about every weekend. When I've had air conditioner problems it got fixed right away, if there was something in the room that was missed by housekeeping it gets handled immediately! I've never had any major problems and I enjoy my time at this Inn. I work on the weekends in Houston so I request to be placed on the 3rd floor just in case there might be children in rooms and are up late being kids. I am always accommodated and I greatly appreciate that small blessing. The front desk clerk Angie Rodriguez (short bubbly clerk) is amazing!!!!! She is friendly, efficient and remembers my name as well as room preference. When I had the small housekeeping issue one weekend and came to tell her about it she had housekeeping fix it within minutes. She always has a great attitude and a smiling face. I appreciate her attentiveness to details.  I've watched her to see if she greets other the same and she does, she shows great customer service as a front desk clerk!!  The housekeeping crew are sweet, if I need something in my room and I see them in the hallway they are also accommodating and friendly. The manager Jay is great as well, he too knows my name and it is great to have a manager at a hotel establishment that is friendly and keeps his establishment clean &amp; updated. Angie R is also nice, I mostly deal with Angie Rodriguez but I have had to check in with Angie R. before. Same goes for Maria she is nice also. Thank you for making my stays at Red Roof Inn - Brookhollow enjoyable!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Hotel Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
+  </si>
+  <si>
+    <t>I stay at this Inn just about every weekend. When I've had air conditioner problems it got fixed right away, if there was something in the room that was missed by housekeeping it gets handled immediately! I've never had any major problems and I enjoy my time at this Inn. I work on the weekends in Houston so I request to be placed on the 3rd floor just in case there might be children in rooms and are up late being kids. I am always accommodated and I greatly appreciate that small blessing. The front desk clerk Angie Rodriguez (short bubbly clerk) is amazing!!!!! She is friendly, efficient and remembers my name as well as room preference. When I had the small housekeeping issue one weekend and came to tell her about it she had housekeeping fix it within minutes. She always has a great attitude and a smiling face. I appreciate her attentiveness to details.  I've watched her to see if she greets other the same and she does, she shows great customer service as a front desk clerk!!  The housekeeping crew are sweet, if I need something in my room and I see them in the hallway they are also accommodating and friendly. The manager Jay is great as well, he too knows my name and it is great to have a manager at a hotel establishment that is friendly and keeps his establishment clean &amp; updated. Angie...I stay at this Inn just about every weekend. When I've had air conditioner problems it got fixed right away, if there was something in the room that was missed by housekeeping it gets handled immediately! I've never had any major problems and I enjoy my time at this Inn. I work on the weekends in Houston so I request to be placed on the 3rd floor just in case there might be children in rooms and are up late being kids. I am always accommodated and I greatly appreciate that small blessing. The front desk clerk Angie Rodriguez (short bubbly clerk) is amazing!!!!! She is friendly, efficient and remembers my name as well as room preference. When I had the small housekeeping issue one weekend and came to tell her about it she had housekeeping fix it within minutes. She always has a great attitude and a smiling face. I appreciate her attentiveness to details.  I've watched her to see if she greets other the same and she does, she shows great customer service as a front desk clerk!!  The housekeeping crew are sweet, if I need something in my room and I see them in the hallway they are also accommodating and friendly. The manager Jay is great as well, he too knows my name and it is great to have a manager at a hotel establishment that is friendly and keeps his establishment clean &amp; updated. Angie R is also nice, I mostly deal with Angie Rodriguez but I have had to check in with Angie R. before. Same goes for Maria she is nice also. Thank you for making my stays at Red Roof Inn - Brookhollow enjoyable!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r587847620-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223175</t>
-  </si>
-  <si>
     <t>587847620</t>
   </si>
   <si>
@@ -174,12 +234,6 @@
     <t>Room was clean and smelled good unlike some hotels in the area.  The house keeping staff was super nice and showed me what I was looking for.  Angie with her beautiful smile at the front desk was amazing and can't wait to come back to Houston and stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>redroofinnhoustontx, Hotel Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded June 19, 2018</t>
   </si>
   <si>
@@ -207,9 +261,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>redroofinnhoustontx, Hotel Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded June 2, 2018</t>
   </si>
   <si>
@@ -243,15 +294,51 @@
     <t>The staff is very friendly and helpful. The rooms are clean and very spacious. The housekeepers are friendly and nice that make sure your rooms are cleaned. The place is quiet and pool is clean. My stay was great!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r583043688-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583043688</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>. friendly and welcoming staff....extra clean, comfortable beds and pillows, beautiful updated decorations, extra clean,  free parking, no breakfast, flat screen TV, with alot of channels, highly recommend this motel, MoreShow less</t>
+  </si>
+  <si>
+    <t>. friendly and welcoming staff....extra clean, comfortable beds and pillows, beautiful updated decorations, extra clean,  free parking, no breakfast, flat screen TV, with alot of channels, highly recommend this motel, More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r582490937-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582490937</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Good rooms, Awesome staff.</t>
+  </si>
+  <si>
+    <t>The property is clean and well maintained.   Angie Rodriguez, at the front desk is wonderful.  She is always smiling and ready to help me out with bookings, things to do in the area, or just find  answers tpo general questions that I may have.MoreShow less</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Hotel Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2018</t>
+  </si>
+  <si>
+    <t>The property is clean and well maintained.   Angie Rodriguez, at the front desk is wonderful.  She is always smiling and ready to help me out with bookings, things to do in the area, or just find  answers tpo general questions that I may have.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r582442387-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
     <t>582442387</t>
   </si>
   <si>
-    <t>05/24/2018</t>
-  </si>
-  <si>
     <t>Our stay at Red Roof Inn</t>
   </si>
   <si>
@@ -276,12 +363,6 @@
     <t>I thought it was gonna be a dirty little place but Angie Rodriguez at the front desk made my stay very comfortable. The room is spacious and clean and the before was extremely comfortable. They even have anot elevator.MoreShow less</t>
   </si>
   <si>
-    <t>redroofinnhoustontx, Hotel Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded May 28, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 28, 2018</t>
-  </si>
-  <si>
     <t>I thought it was gonna be a dirty little place but Angie Rodriguez at the front desk made my stay very comfortable. The room is spacious and clean and the before was extremely comfortable. They even have anot elevator.More</t>
   </si>
   <si>
@@ -300,6 +381,42 @@
     <t>The Red Roof Inn has been our home, our haven, for the past 4 months due to unforeseen occurrences with our recent relocation to Houston. The staff here has made this adjustment so much easier to deal with. Manager, Jay, and staff, Angie Rodriguez, Alma, Tim, and Marta from housekeeping, are always friendly and very accommodating. Red Roof Inn is a sure winner, from the free breakfast and coffee service to the emaculate way the staff keeps the rooms, pool, and hotel grounds. For a family friendly and pet friendly stay, we strongly recommend Red Roof Inn in Brookhollow.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r582298965-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582298965</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>extended stay of a month and counting</t>
+  </si>
+  <si>
+    <t>My husband ,our 2 dogs and I have been here a month and have found it to be enjoyable as the entire staff is very attentive to your needs and concerns,espescially Ms.Angie Rodriquez! There is a large dog park on premise and securityfor the parking lots and roomsMoreShow less</t>
+  </si>
+  <si>
+    <t>My husband ,our 2 dogs and I have been here a month and have found it to be enjoyable as the entire staff is very attentive to your needs and concerns,espescially Ms.Angie Rodriquez! There is a large dog park on premise and securityfor the parking lots and roomsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r582037079-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582037079</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Woof woof</t>
+  </si>
+  <si>
+    <t>Red roof is one of the best places for travel with your pet, they make your pet feel comfortable, all other guest with pets you get to enjoy theirs as well as meeting new friends, nice continental breakfast, staff at the brookhollw location are very helpful and nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Red roof is one of the best places for travel with your pet, they make your pet feel comfortable, all other guest with pets you get to enjoy theirs as well as meeting new friends, nice continental breakfast, staff at the brookhollw location are very helpful and nice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r579513410-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -370,6 +487,60 @@
   </si>
   <si>
     <t>So I came in April 11th from Atlanta for my birthday and I was very impressed with this hotel. The room was clean and comfortable I got the deluxe king size bed which was so spacious and the wifi was free which was fantastic!The front desk person was also helpful I believe her name was Naureen. She had a very pleasant and welcoming attitude and was able to assist me with everything I needed . The continental breakfast in the morning was very decent. Overall I believe was satisfied with my stay and will probably stay there next time I am in town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r512218995-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512218995</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Fair Rates/ Clean/ Friendly Staff</t>
+  </si>
+  <si>
+    <t>WOW!!Rates are the fairest in Houston, Texas Not bad for the price Heavy Construction but worth it with the savings on your room you can do so much more and have a better time in Houston! The staff id friendly there and the pool was Good, Internet good, plenty of T.V. Channels and rooms clean! I will stay there again! I stayed 7 days this time and really thank ed Roof for giving me a Fair Rate! Most other Hotels are too expensive! Save the money and enjoy seeing more for less! Thank you Red Roof!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>WOW!!Rates are the fairest in Houston, Texas Not bad for the price Heavy Construction but worth it with the savings on your room you can do so much more and have a better time in Houston! The staff id friendly there and the pool was Good, Internet good, plenty of T.V. Channels and rooms clean! I will stay there again! I stayed 7 days this time and really thank ed Roof for giving me a Fair Rate! Most other Hotels are too expensive! Save the money and enjoy seeing more for less! Thank you Red Roof!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r506817763-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506817763</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underwhelming and Uncomfortable </t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights with my sister in a king bed room and had an underwhelming experience. We paid a low rate, but did not receive an experience that even matched that low rate. The air conditioning units hardly work. The towels were tiny and scratchy. The hotel smells musty and seems run-down. The inconvenient construction immediately outside the entrance made it difficult to access and the police monitoring in the parking lot after dark made our stay particularly uncomfortable. The water pressure was awful and we did not receive enough toiletries for the number of guests we had on the reservation. The microwave was hit-or-miss and the iron would not heat up. The hair dryer did work, but reeked of urine. The leftover hand prints on the mirror made it uncomfortable and awkward on top of probably being unclean. The breakfast was only served 6:30-8:30 a.m. and only included cereal, "pastries", and coffee without a seating area. The refrigerator worked great and the front desk staff were friendly and helpful when needed. Parking was ample. Also, the cleaning staff were friendly and helpful when needed. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights with my sister in a king bed room and had an underwhelming experience. We paid a low rate, but did not receive an experience that even matched that low rate. The air conditioning units hardly work. The towels were tiny and scratchy. The hotel smells musty and seems run-down. The inconvenient construction immediately outside the entrance made it difficult to access and the police monitoring in the parking lot after dark made our stay particularly uncomfortable. The water pressure was awful and we did not receive enough toiletries for the number of guests we had on the reservation. The microwave was hit-or-miss and the iron would not heat up. The hair dryer did work, but reeked of urine. The leftover hand prints on the mirror made it uncomfortable and awkward on top of probably being unclean. The breakfast was only served 6:30-8:30 a.m. and only included cereal, "pastries", and coffee without a seating area. The refrigerator worked great and the front desk staff were friendly and helpful when needed. Parking was ample. Also, the cleaning staff were friendly and helpful when needed. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r490080441-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
@@ -459,6 +630,48 @@
 The good: the room was clean. No bugs. Fairly quiet. I felt safe. My car was not damaged or in any danger in the parking lot. Staff cleaned daily. (Although it would have been nice if they would have left the entry light on in my room that I left on so I didn't have to come back to a dark room)....Stayed here for 5 nights this week. Here it is: The ugly: see the photos. The comforter was burned by cigarettes in multiple places. This was a non smoking room. The blanket had a stain on it. The floor in front of the fridge/entertainment center was scratched badly like an animal was digging for something. I did request a new blanket/comforter. The front desk man seemed uninterested &amp; only asked if I was in a smoking room (I was not). I never got them. Luckily I didn't need them. The bad: the towels regularly had stuff on them. Mostly very small hairs wound into the fabric of the towel. The stairwell regularly smelled like pot &amp; the door that is supposed to be only accessible with a guest room key was left open for hours while they staff was cleaning. Nobody was watching it. There was a rent a cop sitting at the entrance of the parking lot. Not sure what he was doing. Only on my last night he stopped me &amp; asked for my room number. The good: the room was clean. No bugs. Fairly quiet. I felt safe. My car was not damaged or in any danger in the parking lot. Staff cleaned daily. (Although it would have been nice if they would have left the entry light on in my room that I left on so I didn't have to come back to a dark room). All in all: you get what you pay for. I was here for 5 nights &amp; didn't want to spend a fortune. The price was great. And that is hard to find in Houston. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r459865983-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459865983</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Superbowl Visit</t>
+  </si>
+  <si>
+    <t>The room was spacious and in close proximity to my destination.  The hotel staff was hospitable and maintained a very clean establishment. The hotel was right off the freeway and very close to several restaurants and a movie theater.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>The room was spacious and in close proximity to my destination.  The hotel staff was hospitable and maintained a very clean establishment. The hotel was right off the freeway and very close to several restaurants and a movie theater.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r459711168-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459711168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great but bad </t>
+  </si>
+  <si>
+    <t>Great service at the front desk ,the room is great too only bad thing about this place is all the construction outside and the hot water doesn't work at all I tried running it to let it get hot but that didn't work I will not be staying here again I love my hot showers otherwise I'd shower in a pool in cold weather the water is freezing cold in the shower in the room bad business Red RoofMoreShow less</t>
+  </si>
+  <si>
+    <t>Great service at the front desk ,the room is great too only bad thing about this place is all the construction outside and the hot water doesn't work at all I tried running it to let it get hot but that didn't work I will not be staying here again I love my hot showers otherwise I'd shower in a pool in cold weather the water is freezing cold in the shower in the room bad business Red RoofMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r458071335-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -528,6 +741,45 @@
     <t>Very impressive. Outstanding service by Angie and Kevin. Angie, help me with a personal issue, she took care of me. Kevin was courteous as well at checkout. New remodeled room, with great TVs. Stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r444660054-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444660054</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>I always choose The Red Roof Inn Brookhollow.  This hotel has very friendly, it's always a pleasure checking in when Kevin, Mary, &amp; Angie are at the front desk.  This is In close proximity to great restaurants, taverns, as well as a movie theater.MoreShow less</t>
+  </si>
+  <si>
+    <t>I always choose The Red Roof Inn Brookhollow.  This hotel has very friendly, it's always a pleasure checking in when Kevin, Mary, &amp; Angie are at the front desk.  This is In close proximity to great restaurants, taverns, as well as a movie theater.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r442958293-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442958293</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Nice stay with security!</t>
+  </si>
+  <si>
+    <t>Red Roof is budget lodging but does offer very good service and clean rooms.  We have stayed in our share of motels and they are much the same as it is basically much the same (rooms with a bed, bathroom and TV.This one however provided something I have never seen, security.  I woke up the next morning to fetch a cup of coffee and there was a vehicle in the parking lot with what appeared to be police lighting (flashing lights).  I went into the office and asked what was up?  This motel has an all night security guard to patrol their parking lots.OMG OMG  How many times have I worried about my car being vandalized? Lots!!!This is a great service that would have given me a better nights sleep, had I have known security was provided here.Well this is a heads up for those looking at a stay here and a good nights sleep.PS This place is pet friendly with no additional fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Red Roof is budget lodging but does offer very good service and clean rooms.  We have stayed in our share of motels and they are much the same as it is basically much the same (rooms with a bed, bathroom and TV.This one however provided something I have never seen, security.  I woke up the next morning to fetch a cup of coffee and there was a vehicle in the parking lot with what appeared to be police lighting (flashing lights).  I went into the office and asked what was up?  This motel has an all night security guard to patrol their parking lots.OMG OMG  How many times have I worried about my car being vandalized? Lots!!!This is a great service that would have given me a better nights sleep, had I have known security was provided here.Well this is a heads up for those looking at a stay here and a good nights sleep.PS This place is pet friendly with no additional fee.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r440948207-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -603,6 +855,60 @@
     <t>I read the reviews and I must say walking in and being greeted with a warm welcome smile was simply wonderful Mary made me feel at home.  I see the renovations being done but I was sold from the start wish my stay would have been longer, rooms were up to date I slept like a baby the security at night made me feel secure, the young man at night was so helpful with directions so young bless his heart and his new child on the way this will be my hotel of preference to me and my fellow coworkers.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r434049848-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434049848</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Updated Modern and priced right</t>
+  </si>
+  <si>
+    <t>During my visit the hotel  lobby was under construction. But I was very impress with the rooms being completely updated and the price . This will be my hotel of choice for all my visits home when I don't want to stay with family or friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded November 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2016</t>
+  </si>
+  <si>
+    <t>During my visit the hotel  lobby was under construction. But I was very impress with the rooms being completely updated and the price . This will be my hotel of choice for all my visits home when I don't want to stay with family or friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r412804509-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412804509</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Best front desk staff EVER</t>
+  </si>
+  <si>
+    <t>The rooms and location are just average, but Angie and Mary at the front desk are amazing! They both are helpful and know what they are doing, work very well as a team. All my special needs were met with no problem. This type of customer service is far too rate in today's world. These 2 women deserve applause!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>The rooms and location are just average, but Angie and Mary at the front desk are amazing! They both are helpful and know what they are doing, work very well as a team. All my special needs were met with no problem. This type of customer service is far too rate in today's world. These 2 women deserve applause!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r407044764-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -663,9 +969,6 @@
     <t>I'm a red roof person, but sometimes hotels can have a name, but have mismanagement. I was so thankful about this one. There was even a continental breakfast offered, which was a first for any of the red roof one I've visited. I would definitely recommend. And the attendants were very nice and helpful because I couldn't find my phone and she offered to dial my number from her personal cell phone to help me find it. I wish I had gotten her name.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded August 3, 2016</t>
   </si>
   <si>
@@ -675,6 +978,42 @@
     <t>I'm a red roof person, but sometimes hotels can have a name, but have mismanagement. I was so thankful about this one. There was even a continental breakfast offered, which was a first for any of the red roof one I've visited. I would definitely recommend. And the attendants were very nice and helpful because I couldn't find my phone and she offered to dial my number from her personal cell phone to help me find it. I wish I had gotten her name.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r396275654-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396275654</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>BUGS BUGS BUGS</t>
+  </si>
+  <si>
+    <t>Very hard to get a good nights sleep when there are bugs in the hallways and the rooms.  Every night there were new bugs,.   Roaches, huge water bugs , small black bugs.WIFI is terrible.  i could only get a connection one of the nights I was there.Desk clerk didn't bother to ask me how my stay was when I checked  out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very hard to get a good nights sleep when there are bugs in the hallways and the rooms.  Every night there were new bugs,.   Roaches, huge water bugs , small black bugs.WIFI is terrible.  i could only get a connection one of the nights I was there.Desk clerk didn't bother to ask me how my stay was when I checked  out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r392999433-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392999433</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Most freindliest place</t>
+  </si>
+  <si>
+    <t>Got relocated to Houston, Texas through no fault of my own. My husband got relocated to Houston. Upon arriving to Houston I cried the entire way there, even wanted to be let out of the car lol. After arriving to Red Roof in Houston, I was greeted by the most priceless individual you ever wanted to meet. The member name was Mary at property 231. I shared with Mary the heartache that I had endured upon arriving there. Mary was so humble and kind and reassured me that I would be ok. I laughed and stated that she was just what I needed to make it through the day. Mary informed me on where to get something to eat so I would not have to wait on my husband all day before eating. I just want everyone to know that I will never forget the kindness that I was shown from this individual. Believe me I want forget her and I intend on making a visit back there just to show my appreciation. Thanks Mary.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got relocated to Houston, Texas through no fault of my own. My husband got relocated to Houston. Upon arriving to Houston I cried the entire way there, even wanted to be let out of the car lol. After arriving to Red Roof in Houston, I was greeted by the most priceless individual you ever wanted to meet. The member name was Mary at property 231. I shared with Mary the heartache that I had endured upon arriving there. Mary was so humble and kind and reassured me that I would be ok. I laughed and stated that she was just what I needed to make it through the day. Mary informed me on where to get something to eat so I would not have to wait on my husband all day before eating. I just want everyone to know that I will never forget the kindness that I was shown from this individual. Believe me I want forget her and I intend on making a visit back there just to show my appreciation. Thanks Mary.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r389798699-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -747,6 +1086,51 @@
     <t>This is a very good hotel for the price. It's located off 290 headed west and is situated close to restaurants and shopping not too far down 290. There is a lot of construction going on, but you can get around for the most part. Staff is friendly, beds are comfortable, and the guests are by and large okay. I never see or hear anyone getting too rowdy when I have stayed. The beds and rooms are up to date, there are nice televisions in the rooms, and I can't say enough about the bathrooms. They're pretty nice and I have always had hot water. The continental breakfast leaves something to be desired. You're better off going to a local donut shop, I-hop, or getting breakfast at a nearby restaurant or taco truck/stand. There is adequate security in the parking lot at all times as well as some surveillance from the inside. I've never had a problem and felt safe coming here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r345479072-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345479072</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Very nice place..</t>
+  </si>
+  <si>
+    <t>Very nice place to stay in houston. I never thought we would get a smoking room but we did. To my surprize no smoke at check in. Pet friendly hotel with a super huge pet walking area thay was very clean and well maintained! Very friendly housekeeping staff as well as front desk clerks. Very clean rooms with some updates. Well worth the monies paid for this room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>redroofinnhoustontx, Webmaster at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded February 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2016</t>
+  </si>
+  <si>
+    <t>Very nice place to stay in houston. I never thought we would get a smoking room but we did. To my surprize no smoke at check in. Pet friendly hotel with a super huge pet walking area thay was very clean and well maintained! Very friendly housekeeping staff as well as front desk clerks. Very clean rooms with some updates. Well worth the monies paid for this room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r344640996-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344640996</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Not for the Faint of Heart</t>
+  </si>
+  <si>
+    <t>Hotel is not for single women traveling on business.  The room was fine but during the evening a shooting occurred in the parking lot.  My colleague was unloading her car and had to hide behind her car to keep safe.  The security agent encouraged her to run to the lobby where I was waiting for her.  We went up to my room and shook.  After being  in training all day I tried to check out and was told I would have to be charged for the night.  Despite being shot at and scared to death they were going to charge us an additional night.  My colleague's charge card was charged once we left the business.  DO NOT STAY HERE!  I will be filing a complain with the Better Business Bureau.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is not for single women traveling on business.  The room was fine but during the evening a shooting occurred in the parking lot.  My colleague was unloading her car and had to hide behind her car to keep safe.  The security agent encouraged her to run to the lobby where I was waiting for her.  We went up to my room and shook.  After being  in training all day I tried to check out and was told I would have to be charged for the night.  Despite being shot at and scared to death they were going to charge us an additional night.  My colleague's charge card was charged once we left the business.  DO NOT STAY HERE!  I will be filing a complain with the Better Business Bureau.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r330417332-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -819,6 +1203,45 @@
     <t>Easy access to stairs and elevator on the second floor. Great room, loved the usb wall outlets. All hotel staff was great overall. I usually don't stay in these type of hotels, but I have to admit that I was not disappointed. I genuinely liked it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r318564173-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318564173</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Much improved since previous visits</t>
+  </si>
+  <si>
+    <t>Based on our previous 2 visits, we almost decided not to stay there this time.  Glad we took another chance, Previously room was musty smelling, dark, and outdated. This time the motel was totally remodeled. Room was clean, large, and very tastefully decorated. I made the reservation by phone with front desk clerk Mary. She also checked us in. She was pleasant, professional, and very attentive. She made us feel welcomed and went out of her way to make sure our needs and expectations were met. Based on Mary's attitude and the recent renovations, I will definitely recommend Red Roof-Brookhollow to family and friends when they come to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Based on our previous 2 visits, we almost decided not to stay there this time.  Glad we took another chance, Previously room was musty smelling, dark, and outdated. This time the motel was totally remodeled. Room was clean, large, and very tastefully decorated. I made the reservation by phone with front desk clerk Mary. She also checked us in. She was pleasant, professional, and very attentive. She made us feel welcomed and went out of her way to make sure our needs and expectations were met. Based on Mary's attitude and the recent renovations, I will definitely recommend Red Roof-Brookhollow to family and friends when they come to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r314471137-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314471137</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Rooms and Service</t>
+  </si>
+  <si>
+    <t>We always stay at Red Roof Inns when we travel since they are all pet-friendly however they are not a 5 star hotel, which we are prepared for. We checked into the Red Roof Inn of Brockhollow and we're immediately impressed.  Newly renovated, each room was very clean, floors were laminate and not carpet (which we love with dogs), furniture was all clean and coordinated and beds were clean and crisp. There was an outdoor pet area and easy access in and out of the building for pet relief.  In addition to the cleanliness of the hotel, the front desk service was exquisite.  Both ladies we talked to in our 2 day stay were extremely friendly,willing to go the extra mile with answers and guidance on the area and all around very pleasant.  I would highly recommend this hotel to anyone, especially if traveling with pets. You cannot beat the price with 5 star service.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We always stay at Red Roof Inns when we travel since they are all pet-friendly however they are not a 5 star hotel, which we are prepared for. We checked into the Red Roof Inn of Brockhollow and we're immediately impressed.  Newly renovated, each room was very clean, floors were laminate and not carpet (which we love with dogs), furniture was all clean and coordinated and beds were clean and crisp. There was an outdoor pet area and easy access in and out of the building for pet relief.  In addition to the cleanliness of the hotel, the front desk service was exquisite.  Both ladies we talked to in our 2 day stay were extremely friendly,willing to go the extra mile with answers and guidance on the area and all around very pleasant.  I would highly recommend this hotel to anyone, especially if traveling with pets. You cannot beat the price with 5 star service.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r281217142-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -880,6 +1303,47 @@
   </si>
   <si>
     <t>My frist day at the place was not so pleasent as i ended up finding trash in areas of my room, such as a un-used condom in a cabinet, and used razers in my shower, also my bed had hair in it as well. The front desk people were very nice to me when i had asked them to clean up the room, no problems. Did not like the fact that they had a security detail outside asking if i had reservations at the hotel and at what room, thats a big no no. To cold for the pool as it was outdoor. The rooms looked very modern and beautiful. Slow wifi, good enough for emails and web surfing but not for movies. Expect to see paint on a lot stuff from remodel. Would recommand for looks and price, but they need to work on cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r265769790-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265769790</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>Great room. Reasonably priced</t>
+  </si>
+  <si>
+    <t>Very clean. Very helpful staff. The only complaint was that the pool was closed.  My 3 year old was very disappointed. We had to bribe her with chinese food which the front desk clerk was kind enough to help us with. She gave us a menu for a place that delivered.    Other than that, it was a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean. Very helpful staff. The only complaint was that the pool was closed.  My 3 year old was very disappointed. We had to bribe her with chinese food which the front desk clerk was kind enough to help us with. She gave us a menu for a place that delivered.    Other than that, it was a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r264751360-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264751360</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>8 ouf of 10...Go Mary!</t>
+  </si>
+  <si>
+    <t>Mary, Mary, Mary!!! She’s is the absolute best and really the only one I like dealing with at this location. She’s always wearing her best customer service attitude, and that means everything in the service industry. I’m not really badmouthing the other hotel staff but she seemed to be the one that’s the most helpful, courteous, friendly, and lenient. Look, I’m never looking for favors but sometimes it’s nice to know that a business will stretch a little for your continued business..especially if you’ve been there over 5 months! There were times were I went down to the front desk and turned right back around if Mary was not working. I would wait a couple of days before asking a question or extending my stay.
+There are some rules at that hotel that I don’t necessarily agree with (charging you for makeup on your pillowcase when all I did to remove it myself was take the pillowcase, put it in the sink, fill it up with water, throw in a little Tide and Bleach, rubbed it for less than a minute and Wah Lah…the makeup is gone!) but I do understand that people abuse rules and regulations so one spoiled apple ruins the bunch. Having to enter my room every couple of days is something I never had to experience at other hotels. I have OCD when it comes to germs, disinfecting, and cleaning my room so once it’s sanitized...Mary, Mary, Mary!!! She’s is the absolute best and really the only one I like dealing with at this location. She’s always wearing her best customer service attitude, and that means everything in the service industry. I’m not really badmouthing the other hotel staff but she seemed to be the one that’s the most helpful, courteous, friendly, and lenient. Look, I’m never looking for favors but sometimes it’s nice to know that a business will stretch a little for your continued business..especially if you’ve been there over 5 months! There were times were I went down to the front desk and turned right back around if Mary was not working. I would wait a couple of days before asking a question or extending my stay.There are some rules at that hotel that I don’t necessarily agree with (charging you for makeup on your pillowcase when all I did to remove it myself was take the pillowcase, put it in the sink, fill it up with water, throw in a little Tide and Bleach, rubbed it for less than a minute and Wah Lah…the makeup is gone!) but I do understand that people abuse rules and regulations so one spoiled apple ruins the bunch. Having to enter my room every couple of days is something I never had to experience at other hotels. I have OCD when it comes to germs, disinfecting, and cleaning my room so once it’s sanitized from top to bottom, I don’t like anyone coming behind to clean with the same towels they used in the previous rooms or just coming right behind me to clean period. I have a thing about hair..I don’t like to see it anywhere in my room, not one strand! This is why I always refuse housekeeping. I’d rather sweep and mop my own floor, wipe down my own furniture, wash my own bed blanket and comforter, CLEAN MY OWN BATHROOM, etc. I will gladly bring you my sheets and towels….thus making it easier for housekeeping. But, it is what it is. I know those are supposed to be non-smoking rooms and I’ve smelled cigs and that other cig plenty of times while walking down the hallway so I understand the need to try to regulate that and the need for them to enter your room to check for that. I just have a problem with them cleaning it. Again, it’s people abusing the rules. It is what it is so if it bothered me that much, I could just stay somewhere else. As far as the manager Jay, I don’t really have anything to say about him. The times I have asked him a question or he’s come up to my room, he was nice. I just never really had to deal with him. I’ve ran into a few sketchy folks but I’m not judgmental. I give everyone the benefit of the doubt at first but when you ask me “do you you know where I can score some drugs and I’m not talking about Woodstock stuff”, it throws you a little but such is life. I pretty much stayed to myself and only came out if I needed to. I’m not one to hang out and socialize so it was cool for me.You certainly can’t complain about the price! The thing I REALLY LOVE about this hotel is how up to date and modern the rooms and furnishings are. That with the price and you won’t find a better deal. Kudos for that! One thing I can’t stand is an outdated room with old wood, funky smell, dirty mattresses, cigarette holes, drab decorations, old everything!This location gets an 8 out of 10 in my eyes. Mary accounted for 6 of the points…Love You Mary and keep smiling and laughingMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Mary, Mary, Mary!!! She’s is the absolute best and really the only one I like dealing with at this location. She’s always wearing her best customer service attitude, and that means everything in the service industry. I’m not really badmouthing the other hotel staff but she seemed to be the one that’s the most helpful, courteous, friendly, and lenient. Look, I’m never looking for favors but sometimes it’s nice to know that a business will stretch a little for your continued business..especially if you’ve been there over 5 months! There were times were I went down to the front desk and turned right back around if Mary was not working. I would wait a couple of days before asking a question or extending my stay.
+There are some rules at that hotel that I don’t necessarily agree with (charging you for makeup on your pillowcase when all I did to remove it myself was take the pillowcase, put it in the sink, fill it up with water, throw in a little Tide and Bleach, rubbed it for less than a minute and Wah Lah…the makeup is gone!) but I do understand that people abuse rules and regulations so one spoiled apple ruins the bunch. Having to enter my room every couple of days is something I never had to experience at other hotels. I have OCD when it comes to germs, disinfecting, and cleaning my room so once it’s sanitized...Mary, Mary, Mary!!! She’s is the absolute best and really the only one I like dealing with at this location. She’s always wearing her best customer service attitude, and that means everything in the service industry. I’m not really badmouthing the other hotel staff but she seemed to be the one that’s the most helpful, courteous, friendly, and lenient. Look, I’m never looking for favors but sometimes it’s nice to know that a business will stretch a little for your continued business..especially if you’ve been there over 5 months! There were times were I went down to the front desk and turned right back around if Mary was not working. I would wait a couple of days before asking a question or extending my stay.There are some rules at that hotel that I don’t necessarily agree with (charging you for makeup on your pillowcase when all I did to remove it myself was take the pillowcase, put it in the sink, fill it up with water, throw in a little Tide and Bleach, rubbed it for less than a minute and Wah Lah…the makeup is gone!) but I do understand that people abuse rules and regulations so one spoiled apple ruins the bunch. Having to enter my room every couple of days is something I never had to experience at other hotels. I have OCD when it comes to germs, disinfecting, and cleaning my room so once it’s sanitized from top to bottom, I don’t like anyone coming behind to clean with the same towels they used in the previous rooms or just coming right behind me to clean period. I have a thing about hair..I don’t like to see it anywhere in my room, not one strand! This is why I always refuse housekeeping. I’d rather sweep and mop my own floor, wipe down my own furniture, wash my own bed blanket and comforter, CLEAN MY OWN BATHROOM, etc. I will gladly bring you my sheets and towels….thus making it easier for housekeeping. But, it is what it is. I know those are supposed to be non-smoking rooms and I’ve smelled cigs and that other cig plenty of times while walking down the hallway so I understand the need to try to regulate that and the need for them to enter your room to check for that. I just have a problem with them cleaning it. Again, it’s people abusing the rules. It is what it is so if it bothered me that much, I could just stay somewhere else. As far as the manager Jay, I don’t really have anything to say about him. The times I have asked him a question or he’s come up to my room, he was nice. I just never really had to deal with him. I’ve ran into a few sketchy folks but I’m not judgmental. I give everyone the benefit of the doubt at first but when you ask me “do you you know where I can score some drugs and I’m not talking about Woodstock stuff”, it throws you a little but such is life. I pretty much stayed to myself and only came out if I needed to. I’m not one to hang out and socialize so it was cool for me.You certainly can’t complain about the price! The thing I REALLY LOVE about this hotel is how up to date and modern the rooms and furnishings are. That with the price and you won’t find a better deal. Kudos for that! One thing I can’t stand is an outdated room with old wood, funky smell, dirty mattresses, cigarette holes, drab decorations, old everything!This location gets an 8 out of 10 in my eyes. Mary accounted for 6 of the points…Love You Mary and keep smiling and laughingMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r257970594-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
@@ -899,9 +1363,6 @@
 I am returning to Houston next week and found the hotel right next...I stayed for 5 nights and have no major complaints.  The most important things to me are quiet, clean and comfortable. Quiet - scored 100.  Clean-scored 100. Comfortable scored 90.  On the comfort side, it would have been nice to have a plastic bag to put my dirty laundry in and a closet would have been nice.  Neither are big deals to me.... on this BUSINESS trip.  If I had my wife with me, this place probably wouldn't fly, she would require a closet and a little more upscale appearance.  The Wi-Fi, though advertised as available, was too weak for me to pick up.  But, again, for ME, not a biggie.  My room was on the wall at the end of the hall, far away from the office, and I assume the Wi-Fi.   This hotel is fine if you want to save a dime.  The folks in the halls looked pretty rough, definitely a different element, but the locks on the doors are strong.  My vehicle was not vandalized or broken into.  There is no restaurant, but there is a clean pool. The windows in the lobby entrance doors were dirty and the grounds in the front had cigarette butts on them.  The front door, left side, to the lobby entrance was broken, but the right side worked.  I wonder how long it has been this way.  I am returning to Houston next week and found the hotel right next door, which looks cleaner/newer at the same price so even though I would stay here again, I'm giving the neighbor a try.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>RedRoofInn290, Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded June 16, 2015</t>
   </si>
   <si>
@@ -955,6 +1416,57 @@
     <t>Bad water pressure and an old showerhead, a hole in the wall, and questionable other guests were my biggest complaints.  Don't know if the area is rough or not but I saw several police cars there over the 3 nights I vistied and one  night I got back to the hotel at 12:30 AM and the hotel security followed me around the parking lot watching me.  I guess that is what I get for taking my wife out to a dinner and movie!!You get what you pay for, If your just getting a room to sleep in its alright.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r255693259-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255693259</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Absolutely horrendous! !</t>
+  </si>
+  <si>
+    <t>Let me start by saying our stay was fine to begin with. We checked in with our 2 dogs which they knew we had beforehand. 5 nights later my dog had an accident. I cleaned it with our already dirty towels and they had the nerve to charge us $50!!! Uhm you're pet friendly! Things happen! also they charged us for stained sheets, (sorry I'm a woman!) I'm appalled, after all that they have the nerve to tell us we can't have 2 dogs?? Under 35lbs, after 5 nights when we checked in with them??? Oh and all they do is bark, however we have been woken up by dogs barking the last night of our stay. Also when they cleaned our room, we had medicine and money missing. We will not be treated this way and we are getting our attorneys involved for distress. Run Away as fast as you ca!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>RedRoofInn290, General Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded April 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2015</t>
+  </si>
+  <si>
+    <t>Let me start by saying our stay was fine to begin with. We checked in with our 2 dogs which they knew we had beforehand. 5 nights later my dog had an accident. I cleaned it with our already dirty towels and they had the nerve to charge us $50!!! Uhm you're pet friendly! Things happen! also they charged us for stained sheets, (sorry I'm a woman!) I'm appalled, after all that they have the nerve to tell us we can't have 2 dogs?? Under 35lbs, after 5 nights when we checked in with them??? Oh and all they do is bark, however we have been woken up by dogs barking the last night of our stay. Also when they cleaned our room, we had medicine and money missing. We will not be treated this way and we are getting our attorneys involved for distress. Run Away as fast as you ca!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r253545809-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253545809</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>EWWW</t>
+  </si>
+  <si>
+    <t>My husband and I went to this hotel for a last minute romantic get-a-away and it was HORRIBLE! This place had roaches EVERYWHERE! It was utterly disturbing! I will never be visiting this place of business EVER AGAIN!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>RedRoofInn290, FDM at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I went to this hotel for a last minute romantic get-a-away and it was HORRIBLE! This place had roaches EVERYWHERE! It was utterly disturbing! I will never be visiting this place of business EVER AGAIN!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r251556537-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -997,9 +1509,6 @@
     <t>Small little inn about 30 min away from Airport service was outstanding price was affordable would recommend it any day if your looking to save some $$$ on your vacation, service was done each day as requested! Staff is friendly and available 24 hrs... MoreShow less</t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
     <t>RedRoofInn290, Front Office Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded January 17, 2015</t>
   </si>
   <si>
@@ -1009,6 +1518,54 @@
     <t>Small little inn about 30 min away from Airport service was outstanding price was affordable would recommend it any day if your looking to save some $$$ on your vacation, service was done each day as requested! Staff is friendly and available 24 hrs... More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r247034190-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247034190</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>If you are looking for a hotel that not only offers great, affordable rates but also above average customer service and a staff always willing to go the extra mile to make sure you are accommodated, look no further than this place. I have stayed at hotels that cost much more but offered you much less when it comes to putting the guest first. From the management down to guest services-even housecleaning-this place does an excellent job making sure that you're experience is one that will make you want to return again. The rooms are clean, the people friendly, the location is convenient-whether you are looking for a good restaurant or a short drive into downtown. My only complaint was the weather, but i am sure that if the front desk staff could have changed the forecast for me they would have!!:-). In a time where it seems like common courtesy and good customer service is a lost art, the people at Red Roof Brookhollow do a great job to show you that there are still businesses that put the customer first and assure you that your money is well spent. Would recommend to anyone who is passing through Houston. Thank you Jay, Mary and all the other great people who made my experience very pleasantMoreShow less</t>
+  </si>
+  <si>
+    <t>RedRoofInn290, Front Office Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded January 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2015</t>
+  </si>
+  <si>
+    <t>If you are looking for a hotel that not only offers great, affordable rates but also above average customer service and a staff always willing to go the extra mile to make sure you are accommodated, look no further than this place. I have stayed at hotels that cost much more but offered you much less when it comes to putting the guest first. From the management down to guest services-even housecleaning-this place does an excellent job making sure that you're experience is one that will make you want to return again. The rooms are clean, the people friendly, the location is convenient-whether you are looking for a good restaurant or a short drive into downtown. My only complaint was the weather, but i am sure that if the front desk staff could have changed the forecast for me they would have!!:-). In a time where it seems like common courtesy and good customer service is a lost art, the people at Red Roof Brookhollow do a great job to show you that there are still businesses that put the customer first and assure you that your money is well spent. Would recommend to anyone who is passing through Houston. Thank you Jay, Mary and all the other great people who made my experience very pleasantMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r246452263-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246452263</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband and was amazed by the cleanliness and spacious rooms. The room was up to date and the flat screen tv was a plus!  My husband was amazed at how fast the wifi was, especially it being free.  The employees including the housekeeper were really friendly and helpful.  There are plenty of restaurants near by.  Overall, we enjoyed our stay and will book again with them in the nearby future!MoreShow less</t>
+  </si>
+  <si>
+    <t>RedRoofInn290, FDM at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded January 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband and was amazed by the cleanliness and spacious rooms. The room was up to date and the flat screen tv was a plus!  My husband was amazed at how fast the wifi was, especially it being free.  The employees including the housekeeper were really friendly and helpful.  There are plenty of restaurants near by.  Overall, we enjoyed our stay and will book again with them in the nearby future!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r246250732-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1078,6 +1635,54 @@
     <t>We were visiting family and needed a place to stay for three nights. We checked into this hotel with an amazing service. The location was perfect for our area of Houston. This hotel has a very contemporary look, which we enjoyed. First, Mary checked us in with a friendly welcoming service. She explained the hotel's amenities to us. Then, the rooms are very up to date. The flat screen TV was an a plus. The whole room looked very well put together. Last, the housekeeping staff was very friendly every morning. We would definitely stay here on our next trip back to Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r245349019-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245349019</t>
+  </si>
+  <si>
+    <t>12/21/2014</t>
+  </si>
+  <si>
+    <t>Northeast houston stay</t>
+  </si>
+  <si>
+    <t>This hotel is a red roof, but don't expect red roof quality! Our door had been kicked in, and barely locked at all. Room wasn't clean. Hair was on door. And the hotel staff have a hard time with english. We used to stay here often. But it is too run down now. Pick another hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>RedRoofInn290, FDM at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is a red roof, but don't expect red roof quality! Our door had been kicked in, and barely locked at all. Room wasn't clean. Hair was on door. And the hotel staff have a hard time with english. We used to stay here often. But it is too run down now. Pick another hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r244552925-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244552925</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>I would recommend to everyone</t>
+  </si>
+  <si>
+    <t>I was here on a business trip a few weeks ago and I was very happy with my stay. Clean rooms, great staff and the wifi was fast! I would definetely recommend to everyone, can't beat the great prices either.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jay H, General Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded December 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2014</t>
+  </si>
+  <si>
+    <t>I was here on a business trip a few weeks ago and I was very happy with my stay. Clean rooms, great staff and the wifi was fast! I would definetely recommend to everyone, can't beat the great prices either.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r243256478-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1737,45 @@
     <t>Stayed here in Nov. on business. Have been using Red Roof chain a lot since they have updated. This was one of the nicer placed. Room was huge, clean and in a nice location. The internet was fantastic. Red Roof internet has been such a problem with us at some of the other locations that we will not go back. NOT a problem here. The only bad part of the stay was the property next door. I believe that it is an extended stay. Appeared to cater to illegal "Day Laborers" Typical obnoxious Mexicans. Loud accordion music and management that obviously could have not cared less.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r236499676-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236499676</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Remodeled Red Roof Inn - Good Choice for Suburban Houston</t>
+  </si>
+  <si>
+    <t>This hotel sits right off the freeway east of the massive, sprawling city of Houston. It's about 20 minutes into the city.  The newly remodeled Red Roof Inns are very nice with hard wood floors and new linens. My room was clean and had plenty of plugs - a great feature in new hotels.  The bathroom was fine, the wifi worked good, it was clean and I really had no issues. My colleague jumped in the pool and complained that the chlorine was really thick, and he couldn't stay long.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r231084260-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231084260</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>Services Impeccable</t>
+  </si>
+  <si>
+    <t>I met with Elida at the front desk my very first day here. She is a joy from day one until now. Then the manager, Jay and other front desk personnel, Mary and Angie have also been very pleasant. The cleaning crews- Oh my God! are working with smiles on their faces daily- I don't know how they do it. Rooms are cleaned to perfection everyday and they are open to guest making copies and faxing documents 24 hours a day without incurring additional fees. And coffee at the front desk is 24 hours fresh daily. These are impressive.I didn't know I will find peace, quiet and luxurious services at this hotel for the reasonable amount they charge per night. I am delighted to have stayed here and I've recommended it to friends, families and coworkers already. I will most definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I met with Elida at the front desk my very first day here. She is a joy from day one until now. Then the manager, Jay and other front desk personnel, Mary and Angie have also been very pleasant. The cleaning crews- Oh my God! are working with smiles on their faces daily- I don't know how they do it. Rooms are cleaned to perfection everyday and they are open to guest making copies and faxing documents 24 hours a day without incurring additional fees. And coffee at the front desk is 24 hours fresh daily. These are impressive.I didn't know I will find peace, quiet and luxurious services at this hotel for the reasonable amount they charge per night. I am delighted to have stayed here and I've recommended it to friends, families and coworkers already. I will most definitely stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r228378802-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1147,9 +1791,6 @@
     <t>For the short time I was there I enjoyed my stay, I loved walking down to a fresh cup of Folgers in my cup. the staff was friendly and very helpful. the property looked clean overall inside and out. Thank you I will most definitely recommand your property and will be staying again!</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r215261914-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1830,53 @@
     <t>We stayed at this hotel for business for three weeks. The Internet is TERRIBLE. Basically non-existent. The staff  (minus Jay and Lawrence) were rude. The manager was incredibly rude. There was a murder suicide WHILE we stayed here and VERY sketchy people in and out of the parking lot. The security guard seems like he's doing his job but from what is can see and what we experienced, he isnt.  The room we had smelled like weed and the maids will go into your room whether or not you put the sign up. The rooms were "updated" but as people who work during the night and sleep all day.. we really wished the curtains were better. Shower pressure is low. All and all -- we had a bad experience.  It don't know if it was a fluke but we wouldn't choose here again. Affordable though.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r204958308-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204958308</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Decent Rooms</t>
+  </si>
+  <si>
+    <t>I stayed here for a period of about a month.  It's an OK hotel.  It's not luxury or anything fancy but it gets the job done.  The newer rooms look nicer.  Hardwood floors, Modern Decor Lighting Fixtures, etc.... but it's generally your basic room.  Location is right off of the highway so it's easy access to many parts of Houston.
+If you are leaving in the morning for work, there will be a lot of traffic on HWY 290.  The internet worked for most of the time I was there, but sometimes I have to admit, it was spotty.  You may have to connect to different WiFi Connections to get a decent Signal.  But overall, it wasn't too bad.
+As far as the clientele, well there are all kinds.  I saw normal professionals to nurses, to prostitute looking type women, to not so classy looking gentlemen walking around, to truckers.  I tried not to go out of my room much at all, except when arriving/leaving.
+The elevator did reek really bad though.  Not sure if it smells like barf or maybe just something not so pleasant.  Some of the hallways too smell a little stuffy.
+Night time is pretty quiet usually, so that was good, and important for a goodnight's rest.  Wake Up Call Service worked half the time, the other half it didn't but I had my cell phone as a backup so it wasn't a huge deal.  Not...I stayed here for a period of about a month.  It's an OK hotel.  It's not luxury or anything fancy but it gets the job done.  The newer rooms look nicer.  Hardwood floors, Modern Decor Lighting Fixtures, etc.... but it's generally your basic room.  Location is right off of the highway so it's easy access to many parts of Houston.If you are leaving in the morning for work, there will be a lot of traffic on HWY 290.  The internet worked for most of the time I was there, but sometimes I have to admit, it was spotty.  You may have to connect to different WiFi Connections to get a decent Signal.  But overall, it wasn't too bad.As far as the clientele, well there are all kinds.  I saw normal professionals to nurses, to prostitute looking type women, to not so classy looking gentlemen walking around, to truckers.  I tried not to go out of my room much at all, except when arriving/leaving.The elevator did reek really bad though.  Not sure if it smells like barf or maybe just something not so pleasant.  Some of the hallways too smell a little stuffy.Night time is pretty quiet usually, so that was good, and important for a goodnight's rest.  Wake Up Call Service worked half the time, the other half it didn't but I had my cell phone as a backup so it wasn't a huge deal.  Not sure if the person just didn't know how to set it up, etc... Overall, if you are dropping in for the night or staying for a week, this hotel will suit your needs and get the job done, but don't expect luxury, anything fancy, or a 5 star property.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for a period of about a month.  It's an OK hotel.  It's not luxury or anything fancy but it gets the job done.  The newer rooms look nicer.  Hardwood floors, Modern Decor Lighting Fixtures, etc.... but it's generally your basic room.  Location is right off of the highway so it's easy access to many parts of Houston.
+If you are leaving in the morning for work, there will be a lot of traffic on HWY 290.  The internet worked for most of the time I was there, but sometimes I have to admit, it was spotty.  You may have to connect to different WiFi Connections to get a decent Signal.  But overall, it wasn't too bad.
+As far as the clientele, well there are all kinds.  I saw normal professionals to nurses, to prostitute looking type women, to not so classy looking gentlemen walking around, to truckers.  I tried not to go out of my room much at all, except when arriving/leaving.
+The elevator did reek really bad though.  Not sure if it smells like barf or maybe just something not so pleasant.  Some of the hallways too smell a little stuffy.
+Night time is pretty quiet usually, so that was good, and important for a goodnight's rest.  Wake Up Call Service worked half the time, the other half it didn't but I had my cell phone as a backup so it wasn't a huge deal.  Not...I stayed here for a period of about a month.  It's an OK hotel.  It's not luxury or anything fancy but it gets the job done.  The newer rooms look nicer.  Hardwood floors, Modern Decor Lighting Fixtures, etc.... but it's generally your basic room.  Location is right off of the highway so it's easy access to many parts of Houston.If you are leaving in the morning for work, there will be a lot of traffic on HWY 290.  The internet worked for most of the time I was there, but sometimes I have to admit, it was spotty.  You may have to connect to different WiFi Connections to get a decent Signal.  But overall, it wasn't too bad.As far as the clientele, well there are all kinds.  I saw normal professionals to nurses, to prostitute looking type women, to not so classy looking gentlemen walking around, to truckers.  I tried not to go out of my room much at all, except when arriving/leaving.The elevator did reek really bad though.  Not sure if it smells like barf or maybe just something not so pleasant.  Some of the hallways too smell a little stuffy.Night time is pretty quiet usually, so that was good, and important for a goodnight's rest.  Wake Up Call Service worked half the time, the other half it didn't but I had my cell phone as a backup so it wasn't a huge deal.  Not sure if the person just didn't know how to set it up, etc... Overall, if you are dropping in for the night or staying for a week, this hotel will suit your needs and get the job done, but don't expect luxury, anything fancy, or a 5 star property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r192263502-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192263502</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>cheap and great rooms!!!</t>
+  </si>
+  <si>
+    <t>Rooms were very nice and affordable... everything was close by as for the staff great jay answered every question we had ....i would recommend this hotel to anyone looking for a nice place to stay....</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r190063568-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1204,9 +1892,6 @@
     <t>Jay C. and Raquel  at  the front desk are very friendly and helpful , they go over and beyond to make the guest feel at home and if the guest  need anything they are there to help. As for the housekeeping staff they are all great the GM Jay H. Is also a very friendly. I would recommend this hotel to any one with a family or on business</t>
   </si>
   <si>
-    <t>January 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r162232982-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1237,6 +1922,39 @@
     <t xml:space="preserve">Took a group to stay there. Rooms not as promised, smoking instead of nonsmoking, actually saw some bad things happen there. Frightened some of our people. Won't be back. There are other options in the area. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r157210667-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157210667</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>A Dump</t>
+  </si>
+  <si>
+    <t>One of the two worst rooms I have ever stayed in.  No advertised ironing board and iron in room.  Very bad shape from carpet to bathroom flooring.  Stains on ceiling from water leaks.  Very noisy.  Surrounded by weeds. Horrible bed with sway in the middle.  Stayed 2 nights for a day wedding, back on day 2 at 5:30 pm and room not made up clean yet. No stoppers that fight either sink or bathtub. Red Roof needs to get its name off of this dump, we've stayed in very good ones prior from Seattle to Gaithersburg.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r156937652-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156937652</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>great price new rooms!</t>
+  </si>
+  <si>
+    <t>new clean renovated rooms! and the price is great. Room had hardwood floor, new furniture and lighting. Location was a plus for me, many restaurants in walking distance! the service  and value for room was great.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r155790371-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1285,6 +2003,54 @@
     <t>Clean, new rooms, friendly staff, price is right. Rate A plus. They have been working on this hotel for a few months now and it looks great. I have to work in houston once a month and I am so glad I found the red roof inn on northwest freeway. The best deal in houston.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r145006365-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145006365</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>Decent value</t>
+  </si>
+  <si>
+    <t>Hotel undergoing renovation. We were skeptical upon exiting the elevator on third floor where our room was. It looked like a tornado had been thru with boxes of tiles and other materials on the landing.  The elevator itself smelled of chemical and the whole floor smelled of paint.  I guess you should expect it since there were several rooms being renovated on that floor.  We were surprised upon entering our room. It had been freshly painted and the bathroom had been renovated. Same old carpet though. Overall we were satisfied - there was a fridge, a mw, complimentary coffee, internet service in the room. No breakfast served but the Denny's across the freeway was available. It fit our need and we think it is decent value for the money - we spent only one night enroute to our final destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Vinny P, General Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Hotel undergoing renovation. We were skeptical upon exiting the elevator on third floor where our room was. It looked like a tornado had been thru with boxes of tiles and other materials on the landing.  The elevator itself smelled of chemical and the whole floor smelled of paint.  I guess you should expect it since there were several rooms being renovated on that floor.  We were surprised upon entering our room. It had been freshly painted and the bathroom had been renovated. Same old carpet though. Overall we were satisfied - there was a fridge, a mw, complimentary coffee, internet service in the room. No breakfast served but the Denny's across the freeway was available. It fit our need and we think it is decent value for the money - we spent only one night enroute to our final destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r141565768-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141565768</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>You get what you pay for - - but I do recommend checking out the room before moving in with luggage.  I checked a couple before choosing - - and got what I bargained for.  There were problems with the limited ice machine, where I had to wait for it to ker-chunk out some more ice.  Sometimes it worked, sometimes it took up my time waiting.  The location was good for what I needed to do.  In Houston - - avoid toll roads that don't accept cash.  Some accept toll tags only (forget that your dollar bill says it's good for all debts, public and private, etc.).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for - - but I do recommend checking out the room before moving in with luggage.  I checked a couple before choosing - - and got what I bargained for.  There were problems with the limited ice machine, where I had to wait for it to ker-chunk out some more ice.  Sometimes it worked, sometimes it took up my time waiting.  The location was good for what I needed to do.  In Houston - - avoid toll roads that don't accept cash.  Some accept toll tags only (forget that your dollar bill says it's good for all debts, public and private, etc.).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r140612404-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1303,12 +2069,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>Vinny P, General Manager at Red Roof Inn Houston - Brookhollow, responded to this reviewResponded November 16, 2012</t>
-  </si>
-  <si>
-    <t>Responded November 16, 2012</t>
-  </si>
-  <si>
     <t>I mean really people...its the Red Roof Inn!! What are you expecting? I believe some thought they'd receive treatment as though theywere at the Waldorf Astoria!?!?!? Quite frankly, after reading these reviews, I expected a wretched night of gun shooting, flying roaches and stained sheets, only to walk out to a window shattered and broken into vehicle. To the contrary, it was average. No bugs, no stains, no loud suspicious sounds, no vehicle vandalism, no crime (that I'm aware of). The carpets certainly could have been vacuumed and shampooed better and the fridge never adequately cooled enough for my taste, but I didn't go to the Red Rood intending to vacation for a week with my family and pets. This is no luxurious retreat, but its not the "bates motel" either. Cheap price, quiet get a way, private, clean enough...works for me!More</t>
   </si>
   <si>
@@ -1351,6 +2111,57 @@
     <t>This property is not in a good location to stay from a safety perspective. I travel 20+ weeks a year so I see my fair share of hotels. I rarely write a review of a property that I stay at but this one I feel was worth commenting on.The front desk personnel were very nice and provided me with a ground floor room which I thought would be great since I would not have to drag my luggage up to another floor.The minute I checked into my room I thought maybe I should go somewhere else. The room was terrible. It had dirty carpets, stains on the walls, and beat up furniture. It was just a filthy room. There was a "punch hole" in the bathroom door.My company prepaid the room so I decided to stay. To add to the amenenties the room next door to me must have been selling drugs as they had several visitors throughout the night. One of deals must have went bad as the person staying in the room next door sent his dog out to take  care of the bad deal.What a bad night from any and every aspect.Do not stay here for your own good and safety.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r132998358-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132998358</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Excellent Experience Every Time</t>
+  </si>
+  <si>
+    <t>I've stayed at this location at least 7 to 8 days out of the month for the last 6 months and I think it's AWESOME!  I love their service.  Housekeeping personnel are very courteous and polite each and every time.  I've never had a problem with receiving everything I need during my stay.  And the front desk clerks, I don't know where they find them, but they could come work for me any day...not that I'm trying to steal their employees or anything, but I'm in management and I would love to have a group like them work for me; especially Lawrence.  He always has a smile on his face, even when dealing with difficult clients.  I don't think I've ever seen him frown.  He's very patient, because I'm always a difficult client.  I have to be in a certain spot in the hotel and he makes every effort to accommodate me every time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at this location at least 7 to 8 days out of the month for the last 6 months and I think it's AWESOME!  I love their service.  Housekeeping personnel are very courteous and polite each and every time.  I've never had a problem with receiving everything I need during my stay.  And the front desk clerks, I don't know where they find them, but they could come work for me any day...not that I'm trying to steal their employees or anything, but I'm in management and I would love to have a group like them work for me; especially Lawrence.  He always has a smile on his face, even when dealing with difficult clients.  I don't think I've ever seen him frown.  He's very patient, because I'm always a difficult client.  I have to be in a certain spot in the hotel and he makes every effort to accommodate me every time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r132483984-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132483984</t>
+  </si>
+  <si>
+    <t>06/21/2012</t>
+  </si>
+  <si>
+    <t>Superaltive!!! Red Roof Inn Northwest Houston</t>
+  </si>
+  <si>
+    <t>I am a systems engineer that travels all through out the Continental United States  in the Telecom field and since my stay here 3 weeks ago- I have had nothing but a great experience with the staff here at the ROOF.  To begin with, the cleaning staff - especially Marina and Olga have made my stay very pleasent and they are attentive of my room and the equipment that I use for my profession which  was a concern-no problems there!!!  Also the front desk staff is  very professional and greet me everytime I come "home" from work.  Lawrence is very hard working and knowledgeable and has recommended local businesses that I have gone to, restaurants, sites, and also where NOT to go- Homerun with all.   Most recently I have had the pleasure of meeting Vickie  the Regional manager--very outgoing and is concerned with promoting the quality of this Hotel chain- Thanks Vickie for the 15 percent vouchers- I will use them. Elmer a new empolyee is also very courteous and goes the extra mile.   I  had the opportunity to stay at a suite next door that offers full amenities- Refrig, stove, etc and was offered the same great rate I am paying here- I refused.  Props to you Red Roof Inn NW Houston - keep up the great job!!!!!   The pool is also very clean!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>I am a systems engineer that travels all through out the Continental United States  in the Telecom field and since my stay here 3 weeks ago- I have had nothing but a great experience with the staff here at the ROOF.  To begin with, the cleaning staff - especially Marina and Olga have made my stay very pleasent and they are attentive of my room and the equipment that I use for my profession which  was a concern-no problems there!!!  Also the front desk staff is  very professional and greet me everytime I come "home" from work.  Lawrence is very hard working and knowledgeable and has recommended local businesses that I have gone to, restaurants, sites, and also where NOT to go- Homerun with all.   Most recently I have had the pleasure of meeting Vickie  the Regional manager--very outgoing and is concerned with promoting the quality of this Hotel chain- Thanks Vickie for the 15 percent vouchers- I will use them. Elmer a new empolyee is also very courteous and goes the extra mile.   I  had the opportunity to stay at a suite next door that offers full amenities- Refrig, stove, etc and was offered the same great rate I am paying here- I refused.  Props to you Red Roof Inn NW Houston - keep up the great job!!!!!   The pool is also very clean!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r127783905-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1405,6 +2216,46 @@
     <t>First of all at check in I was given a room that I did not reserve. Front desk tried to help the best they could. Then told me I would get the correct room the next day. Slept in the first room given, it was okay. Floor very dirty and it did not come with micro-frige that I was suppose to have. Hallways very dirty. Only ice machine working is in lobby. Lobby was dirty. Stair ways dirty as well. Second day of stay I was transferred to the room I requested, but it still did not have the micro-frige, they had to bring it from another room. The second room had roaches. Scared to go to sleep and have my luggage. There was a bad smell in second room and a bulb was blowed. I was very disatisfied and don't plan on coming back to this location. The manager was unfriendly as well. The front desk staff was friendly and helpful. They need to spray for the roaches, clean carpets, fix holes in walls, paint, deep cleaning. Some care needs to be put into this place. No one seems to care. Not impressed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r117720693-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117720693</t>
+  </si>
+  <si>
+    <t>09/05/2011</t>
+  </si>
+  <si>
+    <t>Great hotel for the price. People are very nice who work there.</t>
+  </si>
+  <si>
+    <t>Location location location very good. Nice service. Cannot beat the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r115850315-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115850315</t>
+  </si>
+  <si>
+    <t>07/27/2011</t>
+  </si>
+  <si>
+    <t>Disgusting with Roaches!</t>
+  </si>
+  <si>
+    <t>We were in town for dog show and stayed here.  After some of the reviews on here, I was concerned, but a friend had stayed here 2 years ago and said it was good.  I explained at check in that I was concerned and they assured me that my room would be a clean room.  We go to the room, it is older and dated, but do-able. Later that evening, we spot cockroaches on the ceiling and on the dresser.  I FREAKED OUT!  I go to the front desk and they offer to move me 3 doors down.  They apologize &amp; send me on my way.  I inquire about the cockroaches being in there (knowing how they travel) I am assured that there won't be any.  The next night, we kill 2 more roaches.  They can also be seen in the light fixture in the bathroom.  DISGUSTING!  We travel all the time for dog shows and we always stay at budget hotels.  NEVER have I had to deal with roaches!!!
+I went down to front desk to get towels and there was a lady whispering to the clerk that she needed to change rooms.  I pulled her aside afterwards and she told me that she had roaches as well.  We were on the lower level and she was on an upper level. So it wasn't just our rooms.
+also, the service is not the best.  We had a couple of...We were in town for dog show and stayed here.  After some of the reviews on here, I was concerned, but a friend had stayed here 2 years ago and said it was good.  I explained at check in that I was concerned and they assured me that my room would be a clean room.  We go to the room, it is older and dated, but do-able. Later that evening, we spot cockroaches on the ceiling and on the dresser.  I FREAKED OUT!  I go to the front desk and they offer to move me 3 doors down.  They apologize &amp; send me on my way.  I inquire about the cockroaches being in there (knowing how they travel) I am assured that there won't be any.  The next night, we kill 2 more roaches.  They can also be seen in the light fixture in the bathroom.  DISGUSTING!  We travel all the time for dog shows and we always stay at budget hotels.  NEVER have I had to deal with roaches!!!I went down to front desk to get towels and there was a lady whispering to the clerk that she needed to change rooms.  I pulled her aside afterwards and she told me that she had roaches as well.  We were on the lower level and she was on an upper level. So it wasn't just our rooms.also, the service is not the best.  We had a couple of great clerks, but one morning I asked if the water in the pot was hot so I could make tea.  I was told that it was.  Pumped the water into my cup....it was room temp (maybe even cooler).  clerk acted like it was no big deal. BEWARE!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>We were in town for dog show and stayed here.  After some of the reviews on here, I was concerned, but a friend had stayed here 2 years ago and said it was good.  I explained at check in that I was concerned and they assured me that my room would be a clean room.  We go to the room, it is older and dated, but do-able. Later that evening, we spot cockroaches on the ceiling and on the dresser.  I FREAKED OUT!  I go to the front desk and they offer to move me 3 doors down.  They apologize &amp; send me on my way.  I inquire about the cockroaches being in there (knowing how they travel) I am assured that there won't be any.  The next night, we kill 2 more roaches.  They can also be seen in the light fixture in the bathroom.  DISGUSTING!  We travel all the time for dog shows and we always stay at budget hotels.  NEVER have I had to deal with roaches!!!
+I went down to front desk to get towels and there was a lady whispering to the clerk that she needed to change rooms.  I pulled her aside afterwards and she told me that she had roaches as well.  We were on the lower level and she was on an upper level. So it wasn't just our rooms.
+also, the service is not the best.  We had a couple of...We were in town for dog show and stayed here.  After some of the reviews on here, I was concerned, but a friend had stayed here 2 years ago and said it was good.  I explained at check in that I was concerned and they assured me that my room would be a clean room.  We go to the room, it is older and dated, but do-able. Later that evening, we spot cockroaches on the ceiling and on the dresser.  I FREAKED OUT!  I go to the front desk and they offer to move me 3 doors down.  They apologize &amp; send me on my way.  I inquire about the cockroaches being in there (knowing how they travel) I am assured that there won't be any.  The next night, we kill 2 more roaches.  They can also be seen in the light fixture in the bathroom.  DISGUSTING!  We travel all the time for dog shows and we always stay at budget hotels.  NEVER have I had to deal with roaches!!!I went down to front desk to get towels and there was a lady whispering to the clerk that she needed to change rooms.  I pulled her aside afterwards and she told me that she had roaches as well.  We were on the lower level and she was on an upper level. So it wasn't just our rooms.also, the service is not the best.  We had a couple of great clerks, but one morning I asked if the water in the pot was hot so I could make tea.  I was told that it was.  Pumped the water into my cup....it was room temp (maybe even cooler).  clerk acted like it was no big deal. BEWARE!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r115668001-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1420,9 +2271,6 @@
     <t>Red Roof offers the absolute best quality for the money anywhere. Wouldn't stay anywhere else. No other hotel chain equals this perfect combination of quality and economy all in one package.</t>
   </si>
   <si>
-    <t>July 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r115459761-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1459,6 +2307,33 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r91778196-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>91778196</t>
+  </si>
+  <si>
+    <t>01/04/2011</t>
+  </si>
+  <si>
+    <t>I really enjoyed staying at the hotel. The rooms were great and clean for price paid. Staff was courteous and ready to aid in making our 2 day stay comfortable and memorable.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r91758656-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>91758656</t>
+  </si>
+  <si>
+    <t>Fabulous</t>
+  </si>
+  <si>
+    <t>The employees were a delight. Everyone including the manager went above and beyond to make sure that my stay was comfortable and relaxing. The rooms were extremely well kept and there was just a wonderful sense of safety and relaxation. I would definitely recommend this place if you love great customer service, wonderful personnel and clean, comfortable rooms.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r89516319-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1511,6 +2386,45 @@
   </si>
   <si>
     <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r80600045-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>80600045</t>
+  </si>
+  <si>
+    <t>09/22/2010</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Hotel was filthy!!  Only time in my life I've ever asked to change rooms.  Old room had bare lightbulbs, cigarette burns everywhere, black marks all over the walls and the kind of dust that only accumulates after months of not cleaning.  Even the new room had burnt out bulbs and a noisy A/C.  They actually ran out of keys (!) and were escorting people to their rooms when we checked in.  Also heard the clerk tell another guest checking out that the previous clerk didn't leave any money, so they couldn't pay for their hotel room with cash.  Room only had one bath towel and no hand towels.  After going down to the front desk to get more, they took the extras when they cleaned the next day and didn't replace them!  Horrible experience.  DON'T STAY AT THIS HOTEL!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>Hotel was filthy!!  Only time in my life I've ever asked to change rooms.  Old room had bare lightbulbs, cigarette burns everywhere, black marks all over the walls and the kind of dust that only accumulates after months of not cleaning.  Even the new room had burnt out bulbs and a noisy A/C.  They actually ran out of keys (!) and were escorting people to their rooms when we checked in.  Also heard the clerk tell another guest checking out that the previous clerk didn't leave any money, so they couldn't pay for their hotel room with cash.  Room only had one bath towel and no hand towels.  After going down to the front desk to get more, they took the extras when they cleaned the next day and didn't replace them!  Horrible experience.  DON'T STAY AT THIS HOTEL!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r63745023-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>63745023</t>
+  </si>
+  <si>
+    <t>05/10/2010</t>
+  </si>
+  <si>
+    <t>not a good place</t>
+  </si>
+  <si>
+    <t>This is not a very good or safe place to stay, run down, understaffed, needs much updating .  Seems to be a place for  some illegal activities, noisy at night and not very clean.  Staff that was there were friendly.  We do not recommend this place, even if it is cheap and close to a good bar b que place.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223175-r53960904-Red_Roof_Inn_Houston_Brookhollow-Houston_Texas.html</t>
@@ -2209,10 +3123,10 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2224,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
         <v>74</v>
@@ -2270,10 +3184,10 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2285,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2307,7 +3221,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2316,25 +3230,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2346,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -2368,7 +3282,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2377,25 +3291,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
         <v>90</v>
-      </c>
-      <c r="J7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" t="s">
-        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2407,13 +3321,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -2429,7 +3343,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2438,29 +3352,31 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="n">
         <v>5</v>
       </c>
@@ -2472,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -2494,7 +3410,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2503,44 +3419,40 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s">
         <v>110</v>
@@ -2571,22 +3483,22 @@
         <v>112</v>
       </c>
       <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
         <v>113</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>114</v>
       </c>
-      <c r="L10" t="s">
-        <v>115</v>
-      </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2598,13 +3510,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -2620,34 +3532,34 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" t="s">
-        <v>122</v>
-      </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2659,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2681,7 +3593,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2690,43 +3602,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -2742,7 +3660,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2751,25 +3669,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2781,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -2803,7 +3721,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2812,39 +3730,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2860,7 +3786,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2869,43 +3795,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
         <v>149</v>
-      </c>
-      <c r="X15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -2921,7 +3851,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2930,22 +3860,22 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
         <v>63</v>
@@ -2960,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -2982,7 +3912,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2991,49 +3921,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
         <v>4</v>
       </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="X17" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
@@ -3049,7 +3979,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3058,25 +3988,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3088,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
@@ -3110,7 +4040,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3119,49 +4049,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="X19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -3177,7 +4101,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3186,25 +4110,25 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3216,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
@@ -3238,7 +4162,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3247,36 +4171,32 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
@@ -3287,7 +4207,7 @@
         <v>200</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
@@ -3303,7 +4223,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3312,43 +4232,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -3364,7 +4290,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3373,25 +4299,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3403,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y23" t="s">
         <v>215</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="24">
@@ -3425,7 +4351,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3434,26 +4360,22 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
-      <c r="N24" t="s">
-        <v>228</v>
-      </c>
-      <c r="O24" t="s">
-        <v>124</v>
-      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
@@ -3464,13 +4386,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="X24" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
@@ -3486,7 +4408,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3495,47 +4417,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="X25" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
@@ -3551,7 +4469,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3560,47 +4478,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
         <v>63</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="X26" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
@@ -3616,7 +4530,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3625,39 +4539,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="X27" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
@@ -3673,7 +4597,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3682,32 +4606,34 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3716,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="X28" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
@@ -3738,7 +4664,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3747,31 +4673,33 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
         <v>4</v>
       </c>
-      <c r="N29" t="s">
-        <v>270</v>
-      </c>
-      <c r="O29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3781,13 +4709,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="X29" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
@@ -3803,7 +4731,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3812,25 +4740,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3842,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="X30" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Y30" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
@@ -3864,7 +4792,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3873,43 +4801,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>124</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
@@ -3925,7 +4859,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3934,47 +4868,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
         <v>4</v>
       </c>
-      <c r="N32" t="s">
-        <v>291</v>
-      </c>
-      <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="X32" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33">
@@ -3990,7 +4926,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3999,32 +4935,38 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
         <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
@@ -4035,7 +4977,7 @@
         <v>293</v>
       </c>
       <c r="Y33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34">
@@ -4051,7 +4993,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4060,47 +5002,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="X34" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Y34" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
@@ -4116,7 +5054,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4125,45 +5063,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>300</v>
+      </c>
+      <c r="O35" t="s">
+        <v>109</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>301</v>
+      </c>
+      <c r="X35" t="s">
+        <v>302</v>
+      </c>
       <c r="Y35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
@@ -4179,52 +5119,50 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>311</v>
+      </c>
+      <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="K36" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s">
         <v>314</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>291</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
         <v>315</v>
       </c>
-      <c r="J36" t="s">
+      <c r="X36" t="s">
         <v>316</v>
       </c>
-      <c r="K36" t="s">
-        <v>50</v>
-      </c>
-      <c r="L36" t="s">
-        <v>317</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
-      <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
       <c r="Y36" t="s">
         <v>317</v>
       </c>
@@ -4263,31 +5201,37 @@
         <v>322</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="X37" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="Y37" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
@@ -4303,42 +5247,42 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>325</v>
+      </c>
+      <c r="J38" t="s">
+        <v>326</v>
+      </c>
+      <c r="K38" t="s">
         <v>327</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>328</v>
       </c>
-      <c r="J38" t="s">
-        <v>329</v>
-      </c>
-      <c r="K38" t="s">
-        <v>330</v>
-      </c>
-      <c r="L38" t="s">
-        <v>331</v>
-      </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4348,13 +5292,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="X38" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39">
@@ -4370,7 +5314,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4379,49 +5323,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="N39" t="s">
+        <v>291</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="X39" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="Y39" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40">
@@ -4437,7 +5375,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4446,49 +5384,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J40" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K40" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="X40" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Y40" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
@@ -4504,38 +5436,36 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>346</v>
+      </c>
+      <c r="J41" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s">
+        <v>349</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
         <v>350</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
-        <v>351</v>
-      </c>
-      <c r="J41" t="s">
-        <v>352</v>
-      </c>
-      <c r="K41" t="s">
-        <v>353</v>
-      </c>
-      <c r="L41" t="s">
-        <v>354</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>332</v>
-      </c>
       <c r="O41" t="s">
-        <v>73</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="n">
@@ -4543,19 +5473,19 @@
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="X41" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Y41" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
@@ -4571,52 +5501,50 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s">
         <v>358</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
-        <v>359</v>
-      </c>
-      <c r="J42" t="s">
-        <v>360</v>
-      </c>
-      <c r="K42" t="s">
-        <v>361</v>
-      </c>
-      <c r="L42" t="s">
-        <v>362</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P42" t="s"/>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
       <c r="Y42" t="s">
         <v>362</v>
       </c>
@@ -4655,10 +5583,10 @@
         <v>367</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="O43" t="s">
         <v>53</v>
@@ -4666,12 +5594,12 @@
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4679,7 +5607,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44">
@@ -4695,7 +5623,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4704,39 +5632,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J44" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>375</v>
+      </c>
+      <c r="X44" t="s">
+        <v>376</v>
+      </c>
       <c r="Y44" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45">
@@ -4752,7 +5688,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4761,45 +5697,39 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="J45" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K45" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>379</v>
-      </c>
-      <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
+      <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>375</v>
+      </c>
+      <c r="X45" t="s">
+        <v>376</v>
+      </c>
       <c r="Y45" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46">
@@ -4815,7 +5745,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4824,22 +5754,22 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="J46" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K46" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
         <v>53</v>
@@ -4847,16 +5777,24 @@
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>390</v>
+      </c>
+      <c r="X46" t="s">
+        <v>391</v>
+      </c>
       <c r="Y46" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47">
@@ -4872,7 +5810,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4881,38 +5819,32 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="J47" t="s">
+        <v>395</v>
+      </c>
+      <c r="K47" t="s">
+        <v>396</v>
+      </c>
+      <c r="L47" t="s">
+        <v>397</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
         <v>389</v>
       </c>
-      <c r="K47" t="s">
-        <v>390</v>
-      </c>
-      <c r="L47" t="s">
-        <v>391</v>
-      </c>
-      <c r="M47" t="n">
-        <v>5</v>
-      </c>
-      <c r="N47" t="s">
-        <v>392</v>
-      </c>
       <c r="O47" t="s">
-        <v>73</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -4920,10 +5852,14 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>390</v>
+      </c>
+      <c r="X47" t="s">
+        <v>391</v>
+      </c>
       <c r="Y47" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48">
@@ -4939,7 +5875,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4948,45 +5884,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J48" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K48" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>3</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>404</v>
+      </c>
+      <c r="O48" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>390</v>
+      </c>
+      <c r="X48" t="s">
+        <v>391</v>
+      </c>
       <c r="Y48" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49">
@@ -5002,7 +5936,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5011,45 +5945,47 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="J49" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K49" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>411</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
       <c r="P49" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>390</v>
+      </c>
+      <c r="X49" t="s">
+        <v>391</v>
+      </c>
       <c r="Y49" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50">
@@ -5065,7 +6001,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5074,25 +6010,25 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="J50" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="K50" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="O50" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5103,10 +6039,14 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>390</v>
+      </c>
+      <c r="X50" t="s">
+        <v>391</v>
+      </c>
       <c r="Y50" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51">
@@ -5122,7 +6062,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5131,45 +6071,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="J51" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="K51" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="L51" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>425</v>
+      </c>
+      <c r="O51" t="s">
+        <v>181</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>3</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>390</v>
+      </c>
+      <c r="X51" t="s">
+        <v>391</v>
+      </c>
       <c r="Y51" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52">
@@ -5185,7 +6123,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5194,34 +6132,34 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="J52" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="K52" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="L52" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>411</v>
+      </c>
+      <c r="O52" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" t="n">
         <v>4</v>
       </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
       <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5229,10 +6167,14 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>390</v>
+      </c>
+      <c r="X52" t="s">
+        <v>391</v>
+      </c>
       <c r="Y52" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53">
@@ -5248,7 +6190,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5257,53 +6199,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="J53" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="O53" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>3</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
         <v>3</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="X53" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="Y53" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54">
@@ -5319,7 +6257,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5328,49 +6266,47 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="J54" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="K54" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="L54" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
-      <c r="R54" t="n">
-        <v>3</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>445</v>
+      </c>
+      <c r="X54" t="s">
+        <v>446</v>
+      </c>
       <c r="Y54" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55">
@@ -5386,7 +6322,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5395,49 +6331,43 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="J55" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
         <v>438</v>
       </c>
-      <c r="L55" t="s">
-        <v>439</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="s">
-        <v>433</v>
-      </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>1</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>445</v>
+      </c>
+      <c r="X55" t="s">
+        <v>446</v>
+      </c>
       <c r="Y55" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56">
@@ -5453,7 +6383,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5462,45 +6392,47 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="J56" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="K56" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="L56" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
         <v>2</v>
       </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
+      <c r="N56" t="s">
+        <v>459</v>
+      </c>
+      <c r="O56" t="s">
+        <v>109</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
         <v>2</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>460</v>
+      </c>
+      <c r="X56" t="s">
+        <v>446</v>
+      </c>
       <c r="Y56" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57">
@@ -5516,7 +6448,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5525,45 +6457,49 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="J57" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="K57" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="L57" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s"/>
       <c r="O57" t="s"/>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
         <v>3</v>
       </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
       <c r="S57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>467</v>
+      </c>
+      <c r="X57" t="s">
+        <v>468</v>
+      </c>
       <c r="Y57" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58">
@@ -5579,7 +6515,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5588,49 +6524,47 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="J58" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="K58" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="L58" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" t="n">
+        <v>109</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
         <v>1</v>
       </c>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>476</v>
+      </c>
+      <c r="X58" t="s">
+        <v>477</v>
+      </c>
       <c r="Y58" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59">
@@ -5646,7 +6580,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5655,31 +6589,31 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="J59" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="K59" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="L59" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
-      <c r="N59" t="s">
-        <v>464</v>
-      </c>
-      <c r="O59" t="s">
-        <v>53</v>
-      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
       <c r="P59" t="n">
         <v>5</v>
       </c>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
       <c r="S59" t="n">
         <v>5</v>
       </c>
@@ -5693,7 +6627,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60">
@@ -5709,7 +6643,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5718,37 +6652,37 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="J60" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="K60" t="s">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="L60" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
-      </c>
-      <c r="N60" t="s">
-        <v>470</v>
-      </c>
-      <c r="O60" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
       <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
         <v>4</v>
       </c>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5756,7 +6690,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61">
@@ -5772,7 +6706,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5781,47 +6715,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="J61" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="K61" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="L61" t="s">
+        <v>492</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
         <v>475</v>
       </c>
-      <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="s">
-        <v>476</v>
-      </c>
       <c r="O61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
-      <c r="S61" t="n">
-        <v>2</v>
-      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>3</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>493</v>
+      </c>
+      <c r="X61" t="s">
+        <v>494</v>
+      </c>
       <c r="Y61" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62">
@@ -5837,7 +6767,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5846,49 +6776,49 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="J62" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="K62" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="L62" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="O62" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>501</v>
+      </c>
+      <c r="X62" t="s">
+        <v>502</v>
+      </c>
       <c r="Y62" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63">
@@ -5904,7 +6834,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5913,49 +6843,49 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="J63" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="K63" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="L63" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="O63" t="s">
-        <v>73</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>509</v>
+      </c>
+      <c r="X63" t="s">
+        <v>510</v>
+      </c>
       <c r="Y63" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64">
@@ -5971,7 +6901,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5980,38 +6910,34 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="J64" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="K64" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="L64" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R64" t="n">
         <v>5</v>
       </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
         <v>5</v>
@@ -6019,10 +6945,14 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>518</v>
+      </c>
+      <c r="X64" t="s">
+        <v>519</v>
+      </c>
       <c r="Y64" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65">
@@ -6038,7 +6968,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6047,26 +6977,22 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="J65" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="K65" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="L65" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
-      </c>
-      <c r="N65" t="s">
-        <v>500</v>
-      </c>
-      <c r="O65" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
       <c r="P65" t="n">
         <v>5</v>
       </c>
@@ -6074,7 +7000,7 @@
         <v>5</v>
       </c>
       <c r="R65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -6086,10 +7012,14 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>518</v>
+      </c>
+      <c r="X65" t="s">
+        <v>519</v>
+      </c>
       <c r="Y65" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66">
@@ -6105,7 +7035,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6114,49 +7044,2919 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="J66" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="K66" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="L66" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
-      </c>
-      <c r="R66" t="n">
-        <v>1</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>532</v>
+      </c>
+      <c r="X66" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>535</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>536</v>
+      </c>
+      <c r="J67" t="s">
+        <v>537</v>
+      </c>
+      <c r="K67" t="s">
+        <v>538</v>
+      </c>
+      <c r="L67" t="s">
+        <v>539</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>540</v>
+      </c>
+      <c r="X67" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>543</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>544</v>
+      </c>
+      <c r="J68" t="s">
+        <v>545</v>
+      </c>
+      <c r="K68" t="s">
+        <v>546</v>
+      </c>
+      <c r="L68" t="s">
+        <v>547</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>517</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>548</v>
+      </c>
+      <c r="X68" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>551</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>552</v>
+      </c>
+      <c r="J69" t="s">
+        <v>553</v>
+      </c>
+      <c r="K69" t="s">
+        <v>554</v>
+      </c>
+      <c r="L69" t="s">
+        <v>555</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>517</v>
+      </c>
+      <c r="O69" t="s">
+        <v>90</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>556</v>
+      </c>
+      <c r="X69" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>559</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>560</v>
+      </c>
+      <c r="J70" t="s">
+        <v>561</v>
+      </c>
+      <c r="K70" t="s">
+        <v>562</v>
+      </c>
+      <c r="L70" t="s">
+        <v>563</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>517</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>564</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>565</v>
+      </c>
+      <c r="J71" t="s">
+        <v>566</v>
+      </c>
+      <c r="K71" t="s">
+        <v>567</v>
+      </c>
+      <c r="L71" t="s">
+        <v>568</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>517</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>569</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>570</v>
+      </c>
+      <c r="J72" t="s">
+        <v>571</v>
+      </c>
+      <c r="K72" t="s">
+        <v>572</v>
+      </c>
+      <c r="L72" t="s">
+        <v>573</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>574</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>575</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>576</v>
+      </c>
+      <c r="J73" t="s">
+        <v>577</v>
+      </c>
+      <c r="K73" t="s">
+        <v>578</v>
+      </c>
+      <c r="L73" t="s">
+        <v>579</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>580</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>582</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>583</v>
+      </c>
+      <c r="J74" t="s">
+        <v>584</v>
+      </c>
+      <c r="K74" t="s">
+        <v>585</v>
+      </c>
+      <c r="L74" t="s">
+        <v>586</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>580</v>
+      </c>
+      <c r="O74" t="s">
+        <v>109</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>587</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>588</v>
+      </c>
+      <c r="J75" t="s">
+        <v>589</v>
+      </c>
+      <c r="K75" t="s">
+        <v>590</v>
+      </c>
+      <c r="L75" t="s">
+        <v>591</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>592</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>593</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>594</v>
+      </c>
+      <c r="J76" t="s">
+        <v>595</v>
+      </c>
+      <c r="K76" t="s">
+        <v>596</v>
+      </c>
+      <c r="L76" t="s">
+        <v>597</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>598</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>600</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>601</v>
+      </c>
+      <c r="J77" t="s">
+        <v>602</v>
+      </c>
+      <c r="K77" t="s">
+        <v>603</v>
+      </c>
+      <c r="L77" t="s">
+        <v>604</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>605</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>607</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>608</v>
+      </c>
+      <c r="J78" t="s">
+        <v>609</v>
+      </c>
+      <c r="K78" t="s">
+        <v>610</v>
+      </c>
+      <c r="L78" t="s">
+        <v>611</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>612</v>
+      </c>
+      <c r="O78" t="s">
+        <v>90</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>613</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>614</v>
+      </c>
+      <c r="J79" t="s">
+        <v>615</v>
+      </c>
+      <c r="K79" t="s">
+        <v>616</v>
+      </c>
+      <c r="L79" t="s">
+        <v>617</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>612</v>
+      </c>
+      <c r="O79" t="s">
+        <v>90</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>618</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>619</v>
+      </c>
+      <c r="J80" t="s">
+        <v>620</v>
+      </c>
+      <c r="K80" t="s">
+        <v>621</v>
+      </c>
+      <c r="L80" t="s">
+        <v>622</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>623</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>624</v>
+      </c>
+      <c r="J81" t="s">
+        <v>625</v>
+      </c>
+      <c r="K81" t="s">
+        <v>626</v>
+      </c>
+      <c r="L81" t="s">
+        <v>627</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>628</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>629</v>
+      </c>
+      <c r="J82" t="s">
+        <v>630</v>
+      </c>
+      <c r="K82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L82" t="s">
+        <v>632</v>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s">
-        <v>507</v>
+      <c r="N82" t="s">
+        <v>633</v>
+      </c>
+      <c r="O82" t="s">
+        <v>90</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>634</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>635</v>
+      </c>
+      <c r="J83" t="s">
+        <v>636</v>
+      </c>
+      <c r="K83" t="s">
+        <v>637</v>
+      </c>
+      <c r="L83" t="s">
+        <v>638</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>633</v>
+      </c>
+      <c r="O83" t="s">
+        <v>90</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>639</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>640</v>
+      </c>
+      <c r="J84" t="s">
+        <v>641</v>
+      </c>
+      <c r="K84" t="s">
+        <v>642</v>
+      </c>
+      <c r="L84" t="s">
+        <v>643</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>644</v>
+      </c>
+      <c r="O84" t="s">
+        <v>181</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>645</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>646</v>
+      </c>
+      <c r="J85" t="s">
+        <v>647</v>
+      </c>
+      <c r="K85" t="s">
+        <v>648</v>
+      </c>
+      <c r="L85" t="s">
+        <v>649</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>650</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>651</v>
+      </c>
+      <c r="J86" t="s">
+        <v>652</v>
+      </c>
+      <c r="K86" t="s">
+        <v>653</v>
+      </c>
+      <c r="L86" t="s">
+        <v>654</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>655</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>656</v>
+      </c>
+      <c r="J87" t="s">
+        <v>657</v>
+      </c>
+      <c r="K87" t="s">
+        <v>658</v>
+      </c>
+      <c r="L87" t="s">
+        <v>659</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>660</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>661</v>
+      </c>
+      <c r="X87" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>664</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>665</v>
+      </c>
+      <c r="J88" t="s">
+        <v>666</v>
+      </c>
+      <c r="K88" t="s">
+        <v>667</v>
+      </c>
+      <c r="L88" t="s">
+        <v>668</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>669</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>661</v>
+      </c>
+      <c r="X88" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>671</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>672</v>
+      </c>
+      <c r="J89" t="s">
+        <v>673</v>
+      </c>
+      <c r="K89" t="s">
+        <v>674</v>
+      </c>
+      <c r="L89" t="s">
+        <v>675</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>676</v>
+      </c>
+      <c r="O89" t="s">
+        <v>109</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>661</v>
+      </c>
+      <c r="X89" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>678</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>679</v>
+      </c>
+      <c r="J90" t="s">
+        <v>680</v>
+      </c>
+      <c r="K90" t="s">
+        <v>681</v>
+      </c>
+      <c r="L90" t="s">
+        <v>682</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>683</v>
+      </c>
+      <c r="O90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>685</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>686</v>
+      </c>
+      <c r="J91" t="s">
+        <v>687</v>
+      </c>
+      <c r="K91" t="s">
+        <v>688</v>
+      </c>
+      <c r="L91" t="s">
+        <v>689</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>683</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>691</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>692</v>
+      </c>
+      <c r="J92" t="s">
+        <v>693</v>
+      </c>
+      <c r="K92" t="s">
+        <v>694</v>
+      </c>
+      <c r="L92" t="s">
+        <v>695</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>696</v>
+      </c>
+      <c r="O92" t="s">
+        <v>63</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>697</v>
+      </c>
+      <c r="X92" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>700</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>701</v>
+      </c>
+      <c r="J93" t="s">
+        <v>702</v>
+      </c>
+      <c r="K93" t="s">
+        <v>703</v>
+      </c>
+      <c r="L93" t="s">
+        <v>704</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>696</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>705</v>
+      </c>
+      <c r="X93" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>708</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>709</v>
+      </c>
+      <c r="J94" t="s">
+        <v>710</v>
+      </c>
+      <c r="K94" t="s">
+        <v>711</v>
+      </c>
+      <c r="L94" t="s">
+        <v>712</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>714</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>715</v>
+      </c>
+      <c r="J95" t="s">
+        <v>716</v>
+      </c>
+      <c r="K95" t="s">
+        <v>717</v>
+      </c>
+      <c r="L95" t="s">
+        <v>718</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>719</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>720</v>
+      </c>
+      <c r="J96" t="s">
+        <v>721</v>
+      </c>
+      <c r="K96" t="s">
+        <v>722</v>
+      </c>
+      <c r="L96" t="s">
+        <v>723</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>724</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>726</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>727</v>
+      </c>
+      <c r="J97" t="s">
+        <v>728</v>
+      </c>
+      <c r="K97" t="s">
+        <v>729</v>
+      </c>
+      <c r="L97" t="s">
+        <v>730</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>731</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>732</v>
+      </c>
+      <c r="J98" t="s">
+        <v>733</v>
+      </c>
+      <c r="K98" t="s">
+        <v>734</v>
+      </c>
+      <c r="L98" t="s">
+        <v>735</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>736</v>
+      </c>
+      <c r="O98" t="s">
+        <v>90</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>738</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>739</v>
+      </c>
+      <c r="J99" t="s">
+        <v>740</v>
+      </c>
+      <c r="K99" t="s">
+        <v>741</v>
+      </c>
+      <c r="L99" t="s">
+        <v>742</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>736</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>743</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>744</v>
+      </c>
+      <c r="J100" t="s">
+        <v>745</v>
+      </c>
+      <c r="K100" t="s">
+        <v>746</v>
+      </c>
+      <c r="L100" t="s">
+        <v>747</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>748</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>749</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>750</v>
+      </c>
+      <c r="J101" t="s">
+        <v>751</v>
+      </c>
+      <c r="K101" t="s">
+        <v>752</v>
+      </c>
+      <c r="L101" t="s">
+        <v>753</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>754</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>2</v>
+      </c>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>755</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>756</v>
+      </c>
+      <c r="J102" t="s">
+        <v>757</v>
+      </c>
+      <c r="K102" t="s">
+        <v>70</v>
+      </c>
+      <c r="L102" t="s">
+        <v>758</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>759</v>
+      </c>
+      <c r="O102" t="s">
+        <v>90</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>760</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>761</v>
+      </c>
+      <c r="J103" t="s">
+        <v>757</v>
+      </c>
+      <c r="K103" t="s">
+        <v>762</v>
+      </c>
+      <c r="L103" t="s">
+        <v>763</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>759</v>
+      </c>
+      <c r="O103" t="s">
+        <v>181</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>764</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>765</v>
+      </c>
+      <c r="J104" t="s">
+        <v>766</v>
+      </c>
+      <c r="K104" t="s">
+        <v>767</v>
+      </c>
+      <c r="L104" t="s">
+        <v>768</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>769</v>
+      </c>
+      <c r="O104" t="s">
+        <v>90</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>771</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>772</v>
+      </c>
+      <c r="J105" t="s">
+        <v>773</v>
+      </c>
+      <c r="K105" t="s">
+        <v>774</v>
+      </c>
+      <c r="L105" t="s">
+        <v>775</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>769</v>
+      </c>
+      <c r="O105" t="s">
+        <v>90</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>776</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>777</v>
+      </c>
+      <c r="J106" t="s">
+        <v>778</v>
+      </c>
+      <c r="K106" t="s">
+        <v>779</v>
+      </c>
+      <c r="L106" t="s">
+        <v>780</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>781</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>782</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>783</v>
+      </c>
+      <c r="J107" t="s">
+        <v>784</v>
+      </c>
+      <c r="K107" t="s">
+        <v>785</v>
+      </c>
+      <c r="L107" t="s">
+        <v>786</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>787</v>
+      </c>
+      <c r="O107" t="s">
+        <v>109</v>
+      </c>
+      <c r="P107" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>789</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>790</v>
+      </c>
+      <c r="J108" t="s">
+        <v>791</v>
+      </c>
+      <c r="K108" t="s">
+        <v>792</v>
+      </c>
+      <c r="L108" t="s">
+        <v>793</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="s">
+        <v>794</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>795</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>796</v>
+      </c>
+      <c r="J109" t="s">
+        <v>797</v>
+      </c>
+      <c r="K109" t="s">
+        <v>798</v>
+      </c>
+      <c r="L109" t="s">
+        <v>799</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>800</v>
+      </c>
+      <c r="O109" t="s">
+        <v>63</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>33896</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>801</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>802</v>
+      </c>
+      <c r="J110" t="s">
+        <v>803</v>
+      </c>
+      <c r="K110" t="s">
+        <v>804</v>
+      </c>
+      <c r="L110" t="s">
+        <v>805</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>806</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
